--- a/SHOO.xlsx
+++ b/SHOO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F721225-238E-4A01-948C-08161CD54D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A6FE7D-8F72-4444-8032-AC4BD4D6E82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{C42A3123-EC18-4E9E-AA0A-1C921C0157F2}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{C42A3123-EC18-4E9E-AA0A-1C921C0157F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,14 +193,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -214,6 +212,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,20 +247,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -587,33 +600,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E5FAB1-7857-4044-9F1A-EB10836B53BE}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>37.49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3">
@@ -623,11 +637,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="3">
@@ -635,11 +649,11 @@
         <v>2706.44148976</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="3">
@@ -650,8 +664,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="3">
@@ -661,8 +675,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="3">
@@ -683,21 +697,22 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="C33:I35"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -723,8 +738,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="3"/>
@@ -818,8 +833,8 @@
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="3"/>
@@ -913,8 +928,8 @@
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="3"/>
@@ -1008,8 +1023,8 @@
       <c r="CI5" s="3"/>
       <c r="CJ5" s="3"/>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="3"/>
@@ -1103,8 +1118,8 @@
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3"/>
@@ -1198,8 +1213,8 @@
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="3"/>
@@ -1293,7 +1308,7 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1408,8 +1423,8 @@
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3"/>
@@ -1503,8 +1518,8 @@
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3">
@@ -1618,8 +1633,8 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="3"/>
@@ -1713,8 +1728,8 @@
       <c r="CI12" s="3"/>
       <c r="CJ12" s="3"/>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="3"/>
@@ -1808,8 +1823,8 @@
       <c r="CI13" s="3"/>
       <c r="CJ13" s="3"/>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="3"/>
@@ -1903,8 +1918,8 @@
       <c r="CI14" s="3"/>
       <c r="CJ14" s="3"/>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="3">
@@ -2018,8 +2033,8 @@
       <c r="CI15" s="3"/>
       <c r="CJ15" s="3"/>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="3"/>
@@ -2113,8 +2128,8 @@
       <c r="CI16" s="3"/>
       <c r="CJ16" s="3"/>
     </row>
-    <row r="17" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="3">
@@ -2228,8 +2243,8 @@
       <c r="CI17" s="3"/>
       <c r="CJ17" s="3"/>
     </row>
-    <row r="18" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="3"/>
@@ -2323,8 +2338,8 @@
       <c r="CI18" s="3"/>
       <c r="CJ18" s="3"/>
     </row>
-    <row r="19" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="3">
@@ -2438,8 +2453,8 @@
       <c r="CI19" s="3"/>
       <c r="CJ19" s="3"/>
     </row>
-    <row r="20" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="3"/>
@@ -2533,8 +2548,8 @@
       <c r="CI20" s="3"/>
       <c r="CJ20" s="3"/>
     </row>
-    <row r="21" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="3">
@@ -2648,7 +2663,7 @@
       <c r="CI21" s="3"/>
       <c r="CJ21" s="3"/>
     </row>
-    <row r="22" spans="2:88" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2736,39 +2751,39 @@
       <c r="CI22" s="3"/>
       <c r="CJ22" s="3"/>
     </row>
-    <row r="23" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="2" t="e">
+      <c r="C23" s="7" t="e">
         <f t="shared" ref="C23:D23" si="12">+C21/C24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="2" t="e">
+      <c r="D23" s="7" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="7">
         <f>+E21/E24</f>
         <v>0.88305937512852439</v>
       </c>
-      <c r="F23" s="2" t="e">
+      <c r="F23" s="7" t="e">
         <f t="shared" ref="F23:J23" si="13">+F21/F24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="2" t="e">
+      <c r="G23" s="7" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="2" t="e">
+      <c r="H23" s="7" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="7">
         <f t="shared" si="13"/>
         <v>0.78069655113973402</v>
       </c>
-      <c r="J23" s="2" t="e">
+      <c r="J23" s="7" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2851,8 +2866,8 @@
       <c r="CI23" s="3"/>
       <c r="CJ23" s="3"/>
     </row>
-    <row r="24" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="3"/>
@@ -2946,7 +2961,7 @@
       <c r="CI24" s="3"/>
       <c r="CJ24" s="3"/>
     </row>
-    <row r="25" spans="2:88" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -3034,27 +3049,27 @@
       <c r="CI25" s="3"/>
       <c r="CJ25" s="3"/>
     </row>
-    <row r="26" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="7" t="e">
+      <c r="G26" s="8" t="e">
         <f t="shared" ref="G26:H32" si="14">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="7" t="e">
+      <c r="H26" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="8">
         <f>+I3/E3-1</f>
         <v>-2.2031771755680274E-2</v>
       </c>
-      <c r="J26" s="7" t="e">
+      <c r="J26" s="8" t="e">
         <f t="shared" ref="J26:J32" si="15">+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -3137,27 +3152,27 @@
       <c r="CI26" s="3"/>
       <c r="CJ26" s="3"/>
     </row>
-    <row r="27" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="7" t="e">
+      <c r="G27" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="7" t="e">
+      <c r="H27" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="8">
         <f t="shared" ref="I27:I32" si="16">+I4/E4-1</f>
         <v>0.54166176066564642</v>
       </c>
-      <c r="J27" s="7" t="e">
+      <c r="J27" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -3240,27 +3255,27 @@
       <c r="CI27" s="3"/>
       <c r="CJ27" s="3"/>
     </row>
-    <row r="28" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="7" t="e">
+      <c r="G28" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="7" t="e">
+      <c r="H28" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="8">
         <f t="shared" si="16"/>
         <v>7.9712202972640256E-2</v>
       </c>
-      <c r="J28" s="7" t="e">
+      <c r="J28" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -3343,27 +3358,27 @@
       <c r="CI28" s="3"/>
       <c r="CJ28" s="3"/>
     </row>
-    <row r="29" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="7" t="e">
+      <c r="G29" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="7" t="e">
+      <c r="H29" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="8">
         <f t="shared" si="16"/>
         <v>0.21448371448371439</v>
       </c>
-      <c r="J29" s="7" t="e">
+      <c r="J29" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -3446,27 +3461,27 @@
       <c r="CI29" s="3"/>
       <c r="CJ29" s="3"/>
     </row>
-    <row r="30" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="7" t="e">
+      <c r="G30" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="7" t="e">
+      <c r="H30" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="8">
         <f t="shared" si="16"/>
         <v>0.12971632056975935</v>
       </c>
-      <c r="J30" s="7" t="e">
+      <c r="J30" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -3549,27 +3564,27 @@
       <c r="CI30" s="3"/>
       <c r="CJ30" s="3"/>
     </row>
-    <row r="31" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="7" t="e">
+      <c r="G31" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="7" t="e">
+      <c r="H31" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <f t="shared" si="16"/>
         <v>0.21448371448371439</v>
       </c>
-      <c r="J31" s="7" t="e">
+      <c r="J31" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -3652,27 +3667,27 @@
       <c r="CI31" s="3"/>
       <c r="CJ31" s="3"/>
     </row>
-    <row r="32" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="7" t="e">
+      <c r="G32" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="7" t="e">
+      <c r="H32" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="8">
         <f t="shared" si="16"/>
         <v>0.13015891969345006</v>
       </c>
-      <c r="J32" s="7" t="e">
+      <c r="J32" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -3755,36 +3770,36 @@
       <c r="CI32" s="3"/>
       <c r="CJ32" s="3"/>
     </row>
-    <row r="33" spans="3:88" x14ac:dyDescent="0.25">
-      <c r="C33" s="7" t="e">
-        <f t="shared" ref="C33:I33" si="17">+C11/C9</f>
+    <row r="33" spans="3:88" x14ac:dyDescent="0.2">
+      <c r="C33" s="8" t="e">
+        <f t="shared" ref="C33:H33" si="17">+C11/C9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D33" s="7" t="e">
+      <c r="D33" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="8">
         <f t="shared" si="17"/>
         <v>0.42086399918948053</v>
       </c>
-      <c r="F33" s="7" t="e">
+      <c r="F33" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="7" t="e">
+      <c r="G33" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="7" t="e">
+      <c r="H33" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="8">
         <f>+I11/I9</f>
         <v>0.41548645295553688</v>
       </c>
-      <c r="J33" s="7" t="e">
+      <c r="J33" s="8" t="e">
         <f>+J11/J9</f>
         <v>#DIV/0!</v>
       </c>
@@ -3867,36 +3882,36 @@
       <c r="CI33" s="3"/>
       <c r="CJ33" s="3"/>
     </row>
-    <row r="34" spans="3:88" x14ac:dyDescent="0.25">
-      <c r="C34" s="7" t="e">
-        <f t="shared" ref="C34:I34" si="18">+C15/C9</f>
+    <row r="34" spans="3:88" x14ac:dyDescent="0.2">
+      <c r="C34" s="8" t="e">
+        <f t="shared" ref="C34:H34" si="18">+C15/C9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D34" s="7" t="e">
+      <c r="D34" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="8">
         <f t="shared" si="18"/>
         <v>0.14968918028990533</v>
       </c>
-      <c r="F34" s="7" t="e">
+      <c r="F34" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="7" t="e">
+      <c r="G34" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="7" t="e">
+      <c r="H34" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="8">
         <f>+I15/I9</f>
         <v>0.11938688117821268</v>
       </c>
-      <c r="J34" s="7" t="e">
+      <c r="J34" s="8" t="e">
         <f>+J15/J9</f>
         <v>#DIV/0!</v>
       </c>
@@ -3979,36 +3994,36 @@
       <c r="CI34" s="3"/>
       <c r="CJ34" s="3"/>
     </row>
-    <row r="35" spans="3:88" x14ac:dyDescent="0.25">
-      <c r="C35" s="7" t="e">
-        <f t="shared" ref="C35:I35" si="19">+C18/C17</f>
+    <row r="35" spans="3:88" x14ac:dyDescent="0.2">
+      <c r="C35" s="8" t="e">
+        <f t="shared" ref="C35:H35" si="19">+C18/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D35" s="7" t="e">
+      <c r="D35" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <f t="shared" si="19"/>
         <v>0.23094731868651092</v>
       </c>
-      <c r="F35" s="7" t="e">
+      <c r="F35" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="7" t="e">
+      <c r="G35" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="7" t="e">
+      <c r="H35" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="8">
         <f>+I18/I17</f>
         <v>0.25520545421042934</v>
       </c>
-      <c r="J35" s="7" t="e">
+      <c r="J35" s="8" t="e">
         <f>+J18/J17</f>
         <v>#DIV/0!</v>
       </c>
@@ -4091,7 +4106,7 @@
       <c r="CI35" s="3"/>
       <c r="CJ35" s="3"/>
     </row>
-    <row r="36" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -4179,7 +4194,7 @@
       <c r="CI36" s="3"/>
       <c r="CJ36" s="3"/>
     </row>
-    <row r="37" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -4267,7 +4282,7 @@
       <c r="CI37" s="3"/>
       <c r="CJ37" s="3"/>
     </row>
-    <row r="38" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -4355,7 +4370,7 @@
       <c r="CI38" s="3"/>
       <c r="CJ38" s="3"/>
     </row>
-    <row r="39" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -4443,7 +4458,7 @@
       <c r="CI39" s="3"/>
       <c r="CJ39" s="3"/>
     </row>
-    <row r="40" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -4531,7 +4546,7 @@
       <c r="CI40" s="3"/>
       <c r="CJ40" s="3"/>
     </row>
-    <row r="41" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -4619,7 +4634,7 @@
       <c r="CI41" s="3"/>
       <c r="CJ41" s="3"/>
     </row>
-    <row r="42" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4707,7 +4722,7 @@
       <c r="CI42" s="3"/>
       <c r="CJ42" s="3"/>
     </row>
-    <row r="43" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4795,7 +4810,7 @@
       <c r="CI43" s="3"/>
       <c r="CJ43" s="3"/>
     </row>
-    <row r="44" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4883,7 +4898,7 @@
       <c r="CI44" s="3"/>
       <c r="CJ44" s="3"/>
     </row>
-    <row r="45" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4971,7 +4986,7 @@
       <c r="CI45" s="3"/>
       <c r="CJ45" s="3"/>
     </row>
-    <row r="46" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -5059,7 +5074,7 @@
       <c r="CI46" s="3"/>
       <c r="CJ46" s="3"/>
     </row>
-    <row r="47" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -5147,7 +5162,7 @@
       <c r="CI47" s="3"/>
       <c r="CJ47" s="3"/>
     </row>
-    <row r="48" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -5235,7 +5250,7 @@
       <c r="CI48" s="3"/>
       <c r="CJ48" s="3"/>
     </row>
-    <row r="49" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -5323,7 +5338,7 @@
       <c r="CI49" s="3"/>
       <c r="CJ49" s="3"/>
     </row>
-    <row r="50" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -5411,7 +5426,7 @@
       <c r="CI50" s="3"/>
       <c r="CJ50" s="3"/>
     </row>
-    <row r="51" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -5499,7 +5514,7 @@
       <c r="CI51" s="3"/>
       <c r="CJ51" s="3"/>
     </row>
-    <row r="52" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -5587,7 +5602,7 @@
       <c r="CI52" s="3"/>
       <c r="CJ52" s="3"/>
     </row>
-    <row r="53" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -5675,7 +5690,7 @@
       <c r="CI53" s="3"/>
       <c r="CJ53" s="3"/>
     </row>
-    <row r="54" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5763,7 +5778,7 @@
       <c r="CI54" s="3"/>
       <c r="CJ54" s="3"/>
     </row>
-    <row r="55" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -5851,7 +5866,7 @@
       <c r="CI55" s="3"/>
       <c r="CJ55" s="3"/>
     </row>
-    <row r="56" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5939,7 +5954,7 @@
       <c r="CI56" s="3"/>
       <c r="CJ56" s="3"/>
     </row>
-    <row r="57" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -6027,7 +6042,7 @@
       <c r="CI57" s="3"/>
       <c r="CJ57" s="3"/>
     </row>
-    <row r="58" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -6115,7 +6130,7 @@
       <c r="CI58" s="3"/>
       <c r="CJ58" s="3"/>
     </row>
-    <row r="59" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -6203,7 +6218,7 @@
       <c r="CI59" s="3"/>
       <c r="CJ59" s="3"/>
     </row>
-    <row r="60" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -6291,7 +6306,7 @@
       <c r="CI60" s="3"/>
       <c r="CJ60" s="3"/>
     </row>
-    <row r="61" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -6379,7 +6394,7 @@
       <c r="CI61" s="3"/>
       <c r="CJ61" s="3"/>
     </row>
-    <row r="62" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -6467,7 +6482,7 @@
       <c r="CI62" s="3"/>
       <c r="CJ62" s="3"/>
     </row>
-    <row r="63" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -6555,7 +6570,7 @@
       <c r="CI63" s="3"/>
       <c r="CJ63" s="3"/>
     </row>
-    <row r="64" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -6643,7 +6658,7 @@
       <c r="CI64" s="3"/>
       <c r="CJ64" s="3"/>
     </row>
-    <row r="65" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -6731,7 +6746,7 @@
       <c r="CI65" s="3"/>
       <c r="CJ65" s="3"/>
     </row>
-    <row r="66" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -6819,7 +6834,7 @@
       <c r="CI66" s="3"/>
       <c r="CJ66" s="3"/>
     </row>
-    <row r="67" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -6907,7 +6922,7 @@
       <c r="CI67" s="3"/>
       <c r="CJ67" s="3"/>
     </row>
-    <row r="68" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -6995,7 +7010,7 @@
       <c r="CI68" s="3"/>
       <c r="CJ68" s="3"/>
     </row>
-    <row r="69" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -7083,7 +7098,7 @@
       <c r="CI69" s="3"/>
       <c r="CJ69" s="3"/>
     </row>
-    <row r="70" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -7171,7 +7186,7 @@
       <c r="CI70" s="3"/>
       <c r="CJ70" s="3"/>
     </row>
-    <row r="71" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -7259,7 +7274,7 @@
       <c r="CI71" s="3"/>
       <c r="CJ71" s="3"/>
     </row>
-    <row r="72" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -7347,7 +7362,7 @@
       <c r="CI72" s="3"/>
       <c r="CJ72" s="3"/>
     </row>
-    <row r="73" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -7435,7 +7450,7 @@
       <c r="CI73" s="3"/>
       <c r="CJ73" s="3"/>
     </row>
-    <row r="74" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -7523,7 +7538,7 @@
       <c r="CI74" s="3"/>
       <c r="CJ74" s="3"/>
     </row>
-    <row r="75" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -7611,7 +7626,7 @@
       <c r="CI75" s="3"/>
       <c r="CJ75" s="3"/>
     </row>
-    <row r="76" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -7699,7 +7714,7 @@
       <c r="CI76" s="3"/>
       <c r="CJ76" s="3"/>
     </row>
-    <row r="77" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -7787,7 +7802,7 @@
       <c r="CI77" s="3"/>
       <c r="CJ77" s="3"/>
     </row>
-    <row r="78" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -7875,7 +7890,7 @@
       <c r="CI78" s="3"/>
       <c r="CJ78" s="3"/>
     </row>
-    <row r="79" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -7963,7 +7978,7 @@
       <c r="CI79" s="3"/>
       <c r="CJ79" s="3"/>
     </row>
-    <row r="80" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -8051,7 +8066,7 @@
       <c r="CI80" s="3"/>
       <c r="CJ80" s="3"/>
     </row>
-    <row r="81" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -8139,7 +8154,7 @@
       <c r="CI81" s="3"/>
       <c r="CJ81" s="3"/>
     </row>
-    <row r="82" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -8227,7 +8242,7 @@
       <c r="CI82" s="3"/>
       <c r="CJ82" s="3"/>
     </row>
-    <row r="83" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -8315,7 +8330,7 @@
       <c r="CI83" s="3"/>
       <c r="CJ83" s="3"/>
     </row>
-    <row r="84" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -8403,7 +8418,7 @@
       <c r="CI84" s="3"/>
       <c r="CJ84" s="3"/>
     </row>
-    <row r="85" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -8491,7 +8506,7 @@
       <c r="CI85" s="3"/>
       <c r="CJ85" s="3"/>
     </row>
-    <row r="86" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -8579,7 +8594,7 @@
       <c r="CI86" s="3"/>
       <c r="CJ86" s="3"/>
     </row>
-    <row r="87" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -8667,7 +8682,7 @@
       <c r="CI87" s="3"/>
       <c r="CJ87" s="3"/>
     </row>
-    <row r="88" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -8755,7 +8770,7 @@
       <c r="CI88" s="3"/>
       <c r="CJ88" s="3"/>
     </row>
-    <row r="89" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -8843,7 +8858,7 @@
       <c r="CI89" s="3"/>
       <c r="CJ89" s="3"/>
     </row>
-    <row r="90" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -8931,7 +8946,7 @@
       <c r="CI90" s="3"/>
       <c r="CJ90" s="3"/>
     </row>
-    <row r="91" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -9019,7 +9034,7 @@
       <c r="CI91" s="3"/>
       <c r="CJ91" s="3"/>
     </row>
-    <row r="92" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -9107,7 +9122,7 @@
       <c r="CI92" s="3"/>
       <c r="CJ92" s="3"/>
     </row>
-    <row r="93" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -9195,7 +9210,7 @@
       <c r="CI93" s="3"/>
       <c r="CJ93" s="3"/>
     </row>
-    <row r="94" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -9283,7 +9298,7 @@
       <c r="CI94" s="3"/>
       <c r="CJ94" s="3"/>
     </row>
-    <row r="95" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -9371,7 +9386,7 @@
       <c r="CI95" s="3"/>
       <c r="CJ95" s="3"/>
     </row>
-    <row r="96" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -9459,7 +9474,7 @@
       <c r="CI96" s="3"/>
       <c r="CJ96" s="3"/>
     </row>
-    <row r="97" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -9547,7 +9562,7 @@
       <c r="CI97" s="3"/>
       <c r="CJ97" s="3"/>
     </row>
-    <row r="98" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -9635,7 +9650,7 @@
       <c r="CI98" s="3"/>
       <c r="CJ98" s="3"/>
     </row>
-    <row r="99" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -9723,7 +9738,7 @@
       <c r="CI99" s="3"/>
       <c r="CJ99" s="3"/>
     </row>
-    <row r="100" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -9811,7 +9826,7 @@
       <c r="CI100" s="3"/>
       <c r="CJ100" s="3"/>
     </row>
-    <row r="101" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -9899,7 +9914,7 @@
       <c r="CI101" s="3"/>
       <c r="CJ101" s="3"/>
     </row>
-    <row r="102" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -9987,7 +10002,7 @@
       <c r="CI102" s="3"/>
       <c r="CJ102" s="3"/>
     </row>
-    <row r="103" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -10075,7 +10090,7 @@
       <c r="CI103" s="3"/>
       <c r="CJ103" s="3"/>
     </row>
-    <row r="104" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -10163,7 +10178,7 @@
       <c r="CI104" s="3"/>
       <c r="CJ104" s="3"/>
     </row>
-    <row r="105" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -10251,7 +10266,7 @@
       <c r="CI105" s="3"/>
       <c r="CJ105" s="3"/>
     </row>
-    <row r="106" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -10339,7 +10354,7 @@
       <c r="CI106" s="3"/>
       <c r="CJ106" s="3"/>
     </row>
-    <row r="107" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -10427,7 +10442,7 @@
       <c r="CI107" s="3"/>
       <c r="CJ107" s="3"/>
     </row>
-    <row r="108" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -10515,7 +10530,7 @@
       <c r="CI108" s="3"/>
       <c r="CJ108" s="3"/>
     </row>
-    <row r="109" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -10603,7 +10618,7 @@
       <c r="CI109" s="3"/>
       <c r="CJ109" s="3"/>
     </row>
-    <row r="110" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -10691,7 +10706,7 @@
       <c r="CI110" s="3"/>
       <c r="CJ110" s="3"/>
     </row>
-    <row r="111" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -10779,7 +10794,7 @@
       <c r="CI111" s="3"/>
       <c r="CJ111" s="3"/>
     </row>
-    <row r="112" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -10867,7 +10882,7 @@
       <c r="CI112" s="3"/>
       <c r="CJ112" s="3"/>
     </row>
-    <row r="113" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -10955,7 +10970,7 @@
       <c r="CI113" s="3"/>
       <c r="CJ113" s="3"/>
     </row>
-    <row r="114" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -11043,7 +11058,7 @@
       <c r="CI114" s="3"/>
       <c r="CJ114" s="3"/>
     </row>
-    <row r="115" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -11131,7 +11146,7 @@
       <c r="CI115" s="3"/>
       <c r="CJ115" s="3"/>
     </row>
-    <row r="116" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -11219,7 +11234,7 @@
       <c r="CI116" s="3"/>
       <c r="CJ116" s="3"/>
     </row>
-    <row r="117" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -11307,7 +11322,7 @@
       <c r="CI117" s="3"/>
       <c r="CJ117" s="3"/>
     </row>
-    <row r="118" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -11395,7 +11410,7 @@
       <c r="CI118" s="3"/>
       <c r="CJ118" s="3"/>
     </row>
-    <row r="119" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -11483,7 +11498,7 @@
       <c r="CI119" s="3"/>
       <c r="CJ119" s="3"/>
     </row>
-    <row r="120" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -11571,7 +11586,7 @@
       <c r="CI120" s="3"/>
       <c r="CJ120" s="3"/>
     </row>
-    <row r="121" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -11659,7 +11674,7 @@
       <c r="CI121" s="3"/>
       <c r="CJ121" s="3"/>
     </row>
-    <row r="122" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -11747,7 +11762,7 @@
       <c r="CI122" s="3"/>
       <c r="CJ122" s="3"/>
     </row>
-    <row r="123" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -11835,7 +11850,7 @@
       <c r="CI123" s="3"/>
       <c r="CJ123" s="3"/>
     </row>
-    <row r="124" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -11923,7 +11938,7 @@
       <c r="CI124" s="3"/>
       <c r="CJ124" s="3"/>
     </row>
-    <row r="125" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -12011,7 +12026,7 @@
       <c r="CI125" s="3"/>
       <c r="CJ125" s="3"/>
     </row>
-    <row r="126" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -12099,7 +12114,7 @@
       <c r="CI126" s="3"/>
       <c r="CJ126" s="3"/>
     </row>
-    <row r="127" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -12187,7 +12202,7 @@
       <c r="CI127" s="3"/>
       <c r="CJ127" s="3"/>
     </row>
-    <row r="128" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -12275,7 +12290,7 @@
       <c r="CI128" s="3"/>
       <c r="CJ128" s="3"/>
     </row>
-    <row r="129" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -12363,7 +12378,7 @@
       <c r="CI129" s="3"/>
       <c r="CJ129" s="3"/>
     </row>
-    <row r="130" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -12451,7 +12466,7 @@
       <c r="CI130" s="3"/>
       <c r="CJ130" s="3"/>
     </row>
-    <row r="131" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -12539,7 +12554,7 @@
       <c r="CI131" s="3"/>
       <c r="CJ131" s="3"/>
     </row>
-    <row r="132" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -12627,7 +12642,7 @@
       <c r="CI132" s="3"/>
       <c r="CJ132" s="3"/>
     </row>
-    <row r="133" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -12715,7 +12730,7 @@
       <c r="CI133" s="3"/>
       <c r="CJ133" s="3"/>
     </row>
-    <row r="134" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -12803,7 +12818,7 @@
       <c r="CI134" s="3"/>
       <c r="CJ134" s="3"/>
     </row>
-    <row r="135" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -12891,7 +12906,7 @@
       <c r="CI135" s="3"/>
       <c r="CJ135" s="3"/>
     </row>
-    <row r="136" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -12979,7 +12994,7 @@
       <c r="CI136" s="3"/>
       <c r="CJ136" s="3"/>
     </row>
-    <row r="137" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -13067,7 +13082,7 @@
       <c r="CI137" s="3"/>
       <c r="CJ137" s="3"/>
     </row>
-    <row r="138" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -13155,7 +13170,7 @@
       <c r="CI138" s="3"/>
       <c r="CJ138" s="3"/>
     </row>
-    <row r="139" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -13243,7 +13258,7 @@
       <c r="CI139" s="3"/>
       <c r="CJ139" s="3"/>
     </row>
-    <row r="140" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -13331,7 +13346,7 @@
       <c r="CI140" s="3"/>
       <c r="CJ140" s="3"/>
     </row>
-    <row r="141" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -13419,7 +13434,7 @@
       <c r="CI141" s="3"/>
       <c r="CJ141" s="3"/>
     </row>
-    <row r="142" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -13507,7 +13522,7 @@
       <c r="CI142" s="3"/>
       <c r="CJ142" s="3"/>
     </row>
-    <row r="143" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -13595,7 +13610,7 @@
       <c r="CI143" s="3"/>
       <c r="CJ143" s="3"/>
     </row>
-    <row r="144" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -13683,7 +13698,7 @@
       <c r="CI144" s="3"/>
       <c r="CJ144" s="3"/>
     </row>
-    <row r="145" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -13771,7 +13786,7 @@
       <c r="CI145" s="3"/>
       <c r="CJ145" s="3"/>
     </row>
-    <row r="146" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -13859,7 +13874,7 @@
       <c r="CI146" s="3"/>
       <c r="CJ146" s="3"/>
     </row>
-    <row r="147" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -13947,7 +13962,7 @@
       <c r="CI147" s="3"/>
       <c r="CJ147" s="3"/>
     </row>
-    <row r="148" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -14035,7 +14050,7 @@
       <c r="CI148" s="3"/>
       <c r="CJ148" s="3"/>
     </row>
-    <row r="149" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -14123,7 +14138,7 @@
       <c r="CI149" s="3"/>
       <c r="CJ149" s="3"/>
     </row>
-    <row r="150" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -14211,7 +14226,7 @@
       <c r="CI150" s="3"/>
       <c r="CJ150" s="3"/>
     </row>
-    <row r="151" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -14299,7 +14314,7 @@
       <c r="CI151" s="3"/>
       <c r="CJ151" s="3"/>
     </row>
-    <row r="152" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -14387,7 +14402,7 @@
       <c r="CI152" s="3"/>
       <c r="CJ152" s="3"/>
     </row>
-    <row r="153" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -14475,7 +14490,7 @@
       <c r="CI153" s="3"/>
       <c r="CJ153" s="3"/>
     </row>
-    <row r="154" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -14563,7 +14578,7 @@
       <c r="CI154" s="3"/>
       <c r="CJ154" s="3"/>
     </row>
-    <row r="155" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -14651,7 +14666,7 @@
       <c r="CI155" s="3"/>
       <c r="CJ155" s="3"/>
     </row>
-    <row r="156" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -14739,7 +14754,7 @@
       <c r="CI156" s="3"/>
       <c r="CJ156" s="3"/>
     </row>
-    <row r="157" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -14827,7 +14842,7 @@
       <c r="CI157" s="3"/>
       <c r="CJ157" s="3"/>
     </row>
-    <row r="158" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -14915,7 +14930,7 @@
       <c r="CI158" s="3"/>
       <c r="CJ158" s="3"/>
     </row>
-    <row r="159" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -15003,7 +15018,7 @@
       <c r="CI159" s="3"/>
       <c r="CJ159" s="3"/>
     </row>
-    <row r="160" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -15091,7 +15106,7 @@
       <c r="CI160" s="3"/>
       <c r="CJ160" s="3"/>
     </row>
-    <row r="161" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -15179,7 +15194,7 @@
       <c r="CI161" s="3"/>
       <c r="CJ161" s="3"/>
     </row>
-    <row r="162" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -15267,7 +15282,7 @@
       <c r="CI162" s="3"/>
       <c r="CJ162" s="3"/>
     </row>
-    <row r="163" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -15355,7 +15370,7 @@
       <c r="CI163" s="3"/>
       <c r="CJ163" s="3"/>
     </row>
-    <row r="164" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -15443,7 +15458,7 @@
       <c r="CI164" s="3"/>
       <c r="CJ164" s="3"/>
     </row>
-    <row r="165" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -15531,7 +15546,7 @@
       <c r="CI165" s="3"/>
       <c r="CJ165" s="3"/>
     </row>
-    <row r="166" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -15619,7 +15634,7 @@
       <c r="CI166" s="3"/>
       <c r="CJ166" s="3"/>
     </row>
-    <row r="167" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -15707,7 +15722,7 @@
       <c r="CI167" s="3"/>
       <c r="CJ167" s="3"/>
     </row>
-    <row r="168" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -15795,7 +15810,7 @@
       <c r="CI168" s="3"/>
       <c r="CJ168" s="3"/>
     </row>
-    <row r="169" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -15883,7 +15898,7 @@
       <c r="CI169" s="3"/>
       <c r="CJ169" s="3"/>
     </row>
-    <row r="170" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -15971,7 +15986,7 @@
       <c r="CI170" s="3"/>
       <c r="CJ170" s="3"/>
     </row>
-    <row r="171" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -16059,7 +16074,7 @@
       <c r="CI171" s="3"/>
       <c r="CJ171" s="3"/>
     </row>
-    <row r="172" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -16147,7 +16162,7 @@
       <c r="CI172" s="3"/>
       <c r="CJ172" s="3"/>
     </row>
-    <row r="173" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -16235,7 +16250,7 @@
       <c r="CI173" s="3"/>
       <c r="CJ173" s="3"/>
     </row>
-    <row r="174" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -16323,7 +16338,7 @@
       <c r="CI174" s="3"/>
       <c r="CJ174" s="3"/>
     </row>
-    <row r="175" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -16411,7 +16426,7 @@
       <c r="CI175" s="3"/>
       <c r="CJ175" s="3"/>
     </row>
-    <row r="176" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -16499,7 +16514,7 @@
       <c r="CI176" s="3"/>
       <c r="CJ176" s="3"/>
     </row>
-    <row r="177" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -16587,7 +16602,7 @@
       <c r="CI177" s="3"/>
       <c r="CJ177" s="3"/>
     </row>
-    <row r="178" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -16675,7 +16690,7 @@
       <c r="CI178" s="3"/>
       <c r="CJ178" s="3"/>
     </row>
-    <row r="179" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -16763,7 +16778,7 @@
       <c r="CI179" s="3"/>
       <c r="CJ179" s="3"/>
     </row>
-    <row r="180" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -16851,7 +16866,7 @@
       <c r="CI180" s="3"/>
       <c r="CJ180" s="3"/>
     </row>
-    <row r="181" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -16939,7 +16954,7 @@
       <c r="CI181" s="3"/>
       <c r="CJ181" s="3"/>
     </row>
-    <row r="182" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -17027,7 +17042,7 @@
       <c r="CI182" s="3"/>
       <c r="CJ182" s="3"/>
     </row>
-    <row r="183" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -17115,7 +17130,7 @@
       <c r="CI183" s="3"/>
       <c r="CJ183" s="3"/>
     </row>
-    <row r="184" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -17203,7 +17218,7 @@
       <c r="CI184" s="3"/>
       <c r="CJ184" s="3"/>
     </row>
-    <row r="185" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -17291,7 +17306,7 @@
       <c r="CI185" s="3"/>
       <c r="CJ185" s="3"/>
     </row>
-    <row r="186" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -17379,7 +17394,7 @@
       <c r="CI186" s="3"/>
       <c r="CJ186" s="3"/>
     </row>
-    <row r="187" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -17467,7 +17482,7 @@
       <c r="CI187" s="3"/>
       <c r="CJ187" s="3"/>
     </row>
-    <row r="188" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -17555,7 +17570,7 @@
       <c r="CI188" s="3"/>
       <c r="CJ188" s="3"/>
     </row>
-    <row r="189" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -17643,7 +17658,7 @@
       <c r="CI189" s="3"/>
       <c r="CJ189" s="3"/>
     </row>
-    <row r="190" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -17731,7 +17746,7 @@
       <c r="CI190" s="3"/>
       <c r="CJ190" s="3"/>
     </row>
-    <row r="191" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -17819,7 +17834,7 @@
       <c r="CI191" s="3"/>
       <c r="CJ191" s="3"/>
     </row>
-    <row r="192" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -17907,7 +17922,7 @@
       <c r="CI192" s="3"/>
       <c r="CJ192" s="3"/>
     </row>
-    <row r="193" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -17995,7 +18010,7 @@
       <c r="CI193" s="3"/>
       <c r="CJ193" s="3"/>
     </row>
-    <row r="194" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -18083,7 +18098,7 @@
       <c r="CI194" s="3"/>
       <c r="CJ194" s="3"/>
     </row>
-    <row r="195" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -18171,7 +18186,7 @@
       <c r="CI195" s="3"/>
       <c r="CJ195" s="3"/>
     </row>
-    <row r="196" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -18259,7 +18274,7 @@
       <c r="CI196" s="3"/>
       <c r="CJ196" s="3"/>
     </row>
-    <row r="197" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -18347,7 +18362,7 @@
       <c r="CI197" s="3"/>
       <c r="CJ197" s="3"/>
     </row>
-    <row r="198" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -18435,7 +18450,7 @@
       <c r="CI198" s="3"/>
       <c r="CJ198" s="3"/>
     </row>
-    <row r="199" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -18523,7 +18538,7 @@
       <c r="CI199" s="3"/>
       <c r="CJ199" s="3"/>
     </row>
-    <row r="200" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -18611,7 +18626,7 @@
       <c r="CI200" s="3"/>
       <c r="CJ200" s="3"/>
     </row>
-    <row r="201" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -18699,7 +18714,7 @@
       <c r="CI201" s="3"/>
       <c r="CJ201" s="3"/>
     </row>
-    <row r="202" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -18787,7 +18802,7 @@
       <c r="CI202" s="3"/>
       <c r="CJ202" s="3"/>
     </row>
-    <row r="203" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -18875,7 +18890,7 @@
       <c r="CI203" s="3"/>
       <c r="CJ203" s="3"/>
     </row>
-    <row r="204" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -18963,7 +18978,7 @@
       <c r="CI204" s="3"/>
       <c r="CJ204" s="3"/>
     </row>
-    <row r="205" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -19051,7 +19066,7 @@
       <c r="CI205" s="3"/>
       <c r="CJ205" s="3"/>
     </row>
-    <row r="206" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -19139,7 +19154,7 @@
       <c r="CI206" s="3"/>
       <c r="CJ206" s="3"/>
     </row>
-    <row r="207" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -19227,7 +19242,7 @@
       <c r="CI207" s="3"/>
       <c r="CJ207" s="3"/>
     </row>
-    <row r="208" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -19315,7 +19330,7 @@
       <c r="CI208" s="3"/>
       <c r="CJ208" s="3"/>
     </row>
-    <row r="209" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -19403,7 +19418,7 @@
       <c r="CI209" s="3"/>
       <c r="CJ209" s="3"/>
     </row>
-    <row r="210" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -19491,7 +19506,7 @@
       <c r="CI210" s="3"/>
       <c r="CJ210" s="3"/>
     </row>
-    <row r="211" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -19579,7 +19594,7 @@
       <c r="CI211" s="3"/>
       <c r="CJ211" s="3"/>
     </row>
-    <row r="212" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -19667,7 +19682,7 @@
       <c r="CI212" s="3"/>
       <c r="CJ212" s="3"/>
     </row>
-    <row r="213" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -19755,7 +19770,7 @@
       <c r="CI213" s="3"/>
       <c r="CJ213" s="3"/>
     </row>
-    <row r="214" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -19843,7 +19858,7 @@
       <c r="CI214" s="3"/>
       <c r="CJ214" s="3"/>
     </row>
-    <row r="215" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -19931,7 +19946,7 @@
       <c r="CI215" s="3"/>
       <c r="CJ215" s="3"/>
     </row>
-    <row r="216" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -20019,7 +20034,7 @@
       <c r="CI216" s="3"/>
       <c r="CJ216" s="3"/>
     </row>
-    <row r="217" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -20107,7 +20122,7 @@
       <c r="CI217" s="3"/>
       <c r="CJ217" s="3"/>
     </row>
-    <row r="218" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -20195,7 +20210,7 @@
       <c r="CI218" s="3"/>
       <c r="CJ218" s="3"/>
     </row>
-    <row r="219" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -20283,7 +20298,7 @@
       <c r="CI219" s="3"/>
       <c r="CJ219" s="3"/>
     </row>
-    <row r="220" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -20371,7 +20386,7 @@
       <c r="CI220" s="3"/>
       <c r="CJ220" s="3"/>
     </row>
-    <row r="221" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -20459,7 +20474,7 @@
       <c r="CI221" s="3"/>
       <c r="CJ221" s="3"/>
     </row>
-    <row r="222" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -20547,7 +20562,7 @@
       <c r="CI222" s="3"/>
       <c r="CJ222" s="3"/>
     </row>
-    <row r="223" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -20635,7 +20650,7 @@
       <c r="CI223" s="3"/>
       <c r="CJ223" s="3"/>
     </row>
-    <row r="224" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -20723,7 +20738,7 @@
       <c r="CI224" s="3"/>
       <c r="CJ224" s="3"/>
     </row>
-    <row r="225" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -20811,7 +20826,7 @@
       <c r="CI225" s="3"/>
       <c r="CJ225" s="3"/>
     </row>
-    <row r="226" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -20899,7 +20914,7 @@
       <c r="CI226" s="3"/>
       <c r="CJ226" s="3"/>
     </row>
-    <row r="227" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -20987,7 +21002,7 @@
       <c r="CI227" s="3"/>
       <c r="CJ227" s="3"/>
     </row>
-    <row r="228" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -21075,7 +21090,7 @@
       <c r="CI228" s="3"/>
       <c r="CJ228" s="3"/>
     </row>
-    <row r="229" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -21163,7 +21178,7 @@
       <c r="CI229" s="3"/>
       <c r="CJ229" s="3"/>
     </row>
-    <row r="230" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -21251,7 +21266,7 @@
       <c r="CI230" s="3"/>
       <c r="CJ230" s="3"/>
     </row>
-    <row r="231" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -21339,7 +21354,7 @@
       <c r="CI231" s="3"/>
       <c r="CJ231" s="3"/>
     </row>
-    <row r="232" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -21427,7 +21442,7 @@
       <c r="CI232" s="3"/>
       <c r="CJ232" s="3"/>
     </row>
-    <row r="233" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -21515,7 +21530,7 @@
       <c r="CI233" s="3"/>
       <c r="CJ233" s="3"/>
     </row>
-    <row r="234" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -21603,7 +21618,7 @@
       <c r="CI234" s="3"/>
       <c r="CJ234" s="3"/>
     </row>
-    <row r="235" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -21691,7 +21706,7 @@
       <c r="CI235" s="3"/>
       <c r="CJ235" s="3"/>
     </row>
-    <row r="236" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -21779,7 +21794,7 @@
       <c r="CI236" s="3"/>
       <c r="CJ236" s="3"/>
     </row>
-    <row r="237" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -21867,7 +21882,7 @@
       <c r="CI237" s="3"/>
       <c r="CJ237" s="3"/>
     </row>
-    <row r="238" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -21955,7 +21970,7 @@
       <c r="CI238" s="3"/>
       <c r="CJ238" s="3"/>
     </row>
-    <row r="239" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -22043,7 +22058,7 @@
       <c r="CI239" s="3"/>
       <c r="CJ239" s="3"/>
     </row>
-    <row r="240" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -22131,7 +22146,7 @@
       <c r="CI240" s="3"/>
       <c r="CJ240" s="3"/>
     </row>
-    <row r="241" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -22219,7 +22234,7 @@
       <c r="CI241" s="3"/>
       <c r="CJ241" s="3"/>
     </row>
-    <row r="242" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -22307,7 +22322,7 @@
       <c r="CI242" s="3"/>
       <c r="CJ242" s="3"/>
     </row>
-    <row r="243" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -22395,7 +22410,7 @@
       <c r="CI243" s="3"/>
       <c r="CJ243" s="3"/>
     </row>
-    <row r="244" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -22483,7 +22498,7 @@
       <c r="CI244" s="3"/>
       <c r="CJ244" s="3"/>
     </row>
-    <row r="245" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -22571,7 +22586,7 @@
       <c r="CI245" s="3"/>
       <c r="CJ245" s="3"/>
     </row>
-    <row r="246" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -22659,7 +22674,7 @@
       <c r="CI246" s="3"/>
       <c r="CJ246" s="3"/>
     </row>
-    <row r="247" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -22747,7 +22762,7 @@
       <c r="CI247" s="3"/>
       <c r="CJ247" s="3"/>
     </row>
-    <row r="248" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -22835,7 +22850,7 @@
       <c r="CI248" s="3"/>
       <c r="CJ248" s="3"/>
     </row>
-    <row r="249" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -22923,7 +22938,7 @@
       <c r="CI249" s="3"/>
       <c r="CJ249" s="3"/>
     </row>
-    <row r="250" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -23011,7 +23026,7 @@
       <c r="CI250" s="3"/>
       <c r="CJ250" s="3"/>
     </row>
-    <row r="251" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -23099,7 +23114,7 @@
       <c r="CI251" s="3"/>
       <c r="CJ251" s="3"/>
     </row>
-    <row r="252" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -23187,7 +23202,7 @@
       <c r="CI252" s="3"/>
       <c r="CJ252" s="3"/>
     </row>
-    <row r="253" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -23275,7 +23290,7 @@
       <c r="CI253" s="3"/>
       <c r="CJ253" s="3"/>
     </row>
-    <row r="254" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -23363,7 +23378,7 @@
       <c r="CI254" s="3"/>
       <c r="CJ254" s="3"/>
     </row>
-    <row r="255" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -23451,7 +23466,7 @@
       <c r="CI255" s="3"/>
       <c r="CJ255" s="3"/>
     </row>
-    <row r="256" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -23539,7 +23554,7 @@
       <c r="CI256" s="3"/>
       <c r="CJ256" s="3"/>
     </row>
-    <row r="257" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -23627,7 +23642,7 @@
       <c r="CI257" s="3"/>
       <c r="CJ257" s="3"/>
     </row>
-    <row r="258" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -23715,7 +23730,7 @@
       <c r="CI258" s="3"/>
       <c r="CJ258" s="3"/>
     </row>
-    <row r="259" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -23803,7 +23818,7 @@
       <c r="CI259" s="3"/>
       <c r="CJ259" s="3"/>
     </row>
-    <row r="260" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -23891,7 +23906,7 @@
       <c r="CI260" s="3"/>
       <c r="CJ260" s="3"/>
     </row>
-    <row r="261" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -23979,7 +23994,7 @@
       <c r="CI261" s="3"/>
       <c r="CJ261" s="3"/>
     </row>
-    <row r="262" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -24067,7 +24082,7 @@
       <c r="CI262" s="3"/>
       <c r="CJ262" s="3"/>
     </row>
-    <row r="263" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -24155,7 +24170,7 @@
       <c r="CI263" s="3"/>
       <c r="CJ263" s="3"/>
     </row>
-    <row r="264" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -24243,7 +24258,7 @@
       <c r="CI264" s="3"/>
       <c r="CJ264" s="3"/>
     </row>
-    <row r="265" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -24331,7 +24346,7 @@
       <c r="CI265" s="3"/>
       <c r="CJ265" s="3"/>
     </row>
-    <row r="266" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -24419,7 +24434,7 @@
       <c r="CI266" s="3"/>
       <c r="CJ266" s="3"/>
     </row>
-    <row r="267" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -24507,7 +24522,7 @@
       <c r="CI267" s="3"/>
       <c r="CJ267" s="3"/>
     </row>
-    <row r="268" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -24595,7 +24610,7 @@
       <c r="CI268" s="3"/>
       <c r="CJ268" s="3"/>
     </row>
-    <row r="269" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -24683,7 +24698,7 @@
       <c r="CI269" s="3"/>
       <c r="CJ269" s="3"/>
     </row>
-    <row r="270" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -24771,7 +24786,7 @@
       <c r="CI270" s="3"/>
       <c r="CJ270" s="3"/>
     </row>
-    <row r="271" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -24859,7 +24874,7 @@
       <c r="CI271" s="3"/>
       <c r="CJ271" s="3"/>
     </row>
-    <row r="272" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -24947,7 +24962,7 @@
       <c r="CI272" s="3"/>
       <c r="CJ272" s="3"/>
     </row>
-    <row r="273" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -25035,7 +25050,7 @@
       <c r="CI273" s="3"/>
       <c r="CJ273" s="3"/>
     </row>
-    <row r="274" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -25123,7 +25138,7 @@
       <c r="CI274" s="3"/>
       <c r="CJ274" s="3"/>
     </row>
-    <row r="275" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -25211,7 +25226,7 @@
       <c r="CI275" s="3"/>
       <c r="CJ275" s="3"/>
     </row>
-    <row r="276" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -25299,7 +25314,7 @@
       <c r="CI276" s="3"/>
       <c r="CJ276" s="3"/>
     </row>
-    <row r="277" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -25387,7 +25402,7 @@
       <c r="CI277" s="3"/>
       <c r="CJ277" s="3"/>
     </row>
-    <row r="278" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -25475,7 +25490,7 @@
       <c r="CI278" s="3"/>
       <c r="CJ278" s="3"/>
     </row>
-    <row r="279" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -25563,7 +25578,7 @@
       <c r="CI279" s="3"/>
       <c r="CJ279" s="3"/>
     </row>
-    <row r="280" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -25651,7 +25666,7 @@
       <c r="CI280" s="3"/>
       <c r="CJ280" s="3"/>
     </row>
-    <row r="281" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -25739,7 +25754,7 @@
       <c r="CI281" s="3"/>
       <c r="CJ281" s="3"/>
     </row>
-    <row r="282" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -25827,7 +25842,7 @@
       <c r="CI282" s="3"/>
       <c r="CJ282" s="3"/>
     </row>
-    <row r="283" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -25915,7 +25930,7 @@
       <c r="CI283" s="3"/>
       <c r="CJ283" s="3"/>
     </row>
-    <row r="284" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -26003,7 +26018,7 @@
       <c r="CI284" s="3"/>
       <c r="CJ284" s="3"/>
     </row>
-    <row r="285" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -26091,7 +26106,7 @@
       <c r="CI285" s="3"/>
       <c r="CJ285" s="3"/>
     </row>
-    <row r="286" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -26179,7 +26194,7 @@
       <c r="CI286" s="3"/>
       <c r="CJ286" s="3"/>
     </row>
-    <row r="287" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -26267,7 +26282,7 @@
       <c r="CI287" s="3"/>
       <c r="CJ287" s="3"/>
     </row>
-    <row r="288" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -26355,7 +26370,7 @@
       <c r="CI288" s="3"/>
       <c r="CJ288" s="3"/>
     </row>
-    <row r="289" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -26443,7 +26458,7 @@
       <c r="CI289" s="3"/>
       <c r="CJ289" s="3"/>
     </row>
-    <row r="290" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -26531,7 +26546,7 @@
       <c r="CI290" s="3"/>
       <c r="CJ290" s="3"/>
     </row>
-    <row r="291" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -26619,7 +26634,7 @@
       <c r="CI291" s="3"/>
       <c r="CJ291" s="3"/>
     </row>
-    <row r="292" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -26707,7 +26722,7 @@
       <c r="CI292" s="3"/>
       <c r="CJ292" s="3"/>
     </row>
-    <row r="293" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -26795,7 +26810,7 @@
       <c r="CI293" s="3"/>
       <c r="CJ293" s="3"/>
     </row>
-    <row r="294" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -26883,7 +26898,7 @@
       <c r="CI294" s="3"/>
       <c r="CJ294" s="3"/>
     </row>
-    <row r="295" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -26971,7 +26986,7 @@
       <c r="CI295" s="3"/>
       <c r="CJ295" s="3"/>
     </row>
-    <row r="296" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -27059,7 +27074,7 @@
       <c r="CI296" s="3"/>
       <c r="CJ296" s="3"/>
     </row>
-    <row r="297" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -27147,7 +27162,7 @@
       <c r="CI297" s="3"/>
       <c r="CJ297" s="3"/>
     </row>
-    <row r="298" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -27235,7 +27250,7 @@
       <c r="CI298" s="3"/>
       <c r="CJ298" s="3"/>
     </row>
-    <row r="299" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -27323,7 +27338,7 @@
       <c r="CI299" s="3"/>
       <c r="CJ299" s="3"/>
     </row>
-    <row r="300" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -27411,7 +27426,7 @@
       <c r="CI300" s="3"/>
       <c r="CJ300" s="3"/>
     </row>
-    <row r="301" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -27499,7 +27514,7 @@
       <c r="CI301" s="3"/>
       <c r="CJ301" s="3"/>
     </row>
-    <row r="302" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -27587,7 +27602,7 @@
       <c r="CI302" s="3"/>
       <c r="CJ302" s="3"/>
     </row>
-    <row r="303" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -27675,7 +27690,7 @@
       <c r="CI303" s="3"/>
       <c r="CJ303" s="3"/>
     </row>
-    <row r="304" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -27763,7 +27778,7 @@
       <c r="CI304" s="3"/>
       <c r="CJ304" s="3"/>
     </row>
-    <row r="305" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -27851,7 +27866,7 @@
       <c r="CI305" s="3"/>
       <c r="CJ305" s="3"/>
     </row>
-    <row r="306" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -27939,7 +27954,7 @@
       <c r="CI306" s="3"/>
       <c r="CJ306" s="3"/>
     </row>
-    <row r="307" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -28027,7 +28042,7 @@
       <c r="CI307" s="3"/>
       <c r="CJ307" s="3"/>
     </row>
-    <row r="308" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -28115,7 +28130,7 @@
       <c r="CI308" s="3"/>
       <c r="CJ308" s="3"/>
     </row>
-    <row r="309" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -28203,7 +28218,7 @@
       <c r="CI309" s="3"/>
       <c r="CJ309" s="3"/>
     </row>
-    <row r="310" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -28291,7 +28306,7 @@
       <c r="CI310" s="3"/>
       <c r="CJ310" s="3"/>
     </row>
-    <row r="311" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -28379,7 +28394,7 @@
       <c r="CI311" s="3"/>
       <c r="CJ311" s="3"/>
     </row>
-    <row r="312" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -28467,7 +28482,7 @@
       <c r="CI312" s="3"/>
       <c r="CJ312" s="3"/>
     </row>
-    <row r="313" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -28555,7 +28570,7 @@
       <c r="CI313" s="3"/>
       <c r="CJ313" s="3"/>
     </row>
-    <row r="314" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -28643,7 +28658,7 @@
       <c r="CI314" s="3"/>
       <c r="CJ314" s="3"/>
     </row>
-    <row r="315" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -28731,7 +28746,7 @@
       <c r="CI315" s="3"/>
       <c r="CJ315" s="3"/>
     </row>
-    <row r="316" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -28819,7 +28834,7 @@
       <c r="CI316" s="3"/>
       <c r="CJ316" s="3"/>
     </row>
-    <row r="317" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -28907,7 +28922,7 @@
       <c r="CI317" s="3"/>
       <c r="CJ317" s="3"/>
     </row>
-    <row r="318" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -28995,7 +29010,7 @@
       <c r="CI318" s="3"/>
       <c r="CJ318" s="3"/>
     </row>
-    <row r="319" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -29083,7 +29098,7 @@
       <c r="CI319" s="3"/>
       <c r="CJ319" s="3"/>
     </row>
-    <row r="320" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -29171,7 +29186,7 @@
       <c r="CI320" s="3"/>
       <c r="CJ320" s="3"/>
     </row>
-    <row r="321" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -29259,7 +29274,7 @@
       <c r="CI321" s="3"/>
       <c r="CJ321" s="3"/>
     </row>
-    <row r="322" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -29347,7 +29362,7 @@
       <c r="CI322" s="3"/>
       <c r="CJ322" s="3"/>
     </row>
-    <row r="323" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -29435,7 +29450,7 @@
       <c r="CI323" s="3"/>
       <c r="CJ323" s="3"/>
     </row>
-    <row r="324" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -29523,7 +29538,7 @@
       <c r="CI324" s="3"/>
       <c r="CJ324" s="3"/>
     </row>
-    <row r="325" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -29611,7 +29626,7 @@
       <c r="CI325" s="3"/>
       <c r="CJ325" s="3"/>
     </row>
-    <row r="326" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -29699,7 +29714,7 @@
       <c r="CI326" s="3"/>
       <c r="CJ326" s="3"/>
     </row>
-    <row r="327" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -29787,7 +29802,7 @@
       <c r="CI327" s="3"/>
       <c r="CJ327" s="3"/>
     </row>
-    <row r="328" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -29875,7 +29890,7 @@
       <c r="CI328" s="3"/>
       <c r="CJ328" s="3"/>
     </row>
-    <row r="329" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -29963,7 +29978,7 @@
       <c r="CI329" s="3"/>
       <c r="CJ329" s="3"/>
     </row>
-    <row r="330" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -30051,7 +30066,7 @@
       <c r="CI330" s="3"/>
       <c r="CJ330" s="3"/>
     </row>
-    <row r="331" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -30139,7 +30154,7 @@
       <c r="CI331" s="3"/>
       <c r="CJ331" s="3"/>
     </row>
-    <row r="332" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -30227,7 +30242,7 @@
       <c r="CI332" s="3"/>
       <c r="CJ332" s="3"/>
     </row>
-    <row r="333" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -30315,7 +30330,7 @@
       <c r="CI333" s="3"/>
       <c r="CJ333" s="3"/>
     </row>
-    <row r="334" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -30403,7 +30418,7 @@
       <c r="CI334" s="3"/>
       <c r="CJ334" s="3"/>
     </row>
-    <row r="335" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -30491,7 +30506,7 @@
       <c r="CI335" s="3"/>
       <c r="CJ335" s="3"/>
     </row>
-    <row r="336" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -30579,7 +30594,7 @@
       <c r="CI336" s="3"/>
       <c r="CJ336" s="3"/>
     </row>
-    <row r="337" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -30667,7 +30682,7 @@
       <c r="CI337" s="3"/>
       <c r="CJ337" s="3"/>
     </row>
-    <row r="338" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -30755,7 +30770,7 @@
       <c r="CI338" s="3"/>
       <c r="CJ338" s="3"/>
     </row>
-    <row r="339" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -30843,7 +30858,7 @@
       <c r="CI339" s="3"/>
       <c r="CJ339" s="3"/>
     </row>
-    <row r="340" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -30931,7 +30946,7 @@
       <c r="CI340" s="3"/>
       <c r="CJ340" s="3"/>
     </row>
-    <row r="341" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -31019,7 +31034,7 @@
       <c r="CI341" s="3"/>
       <c r="CJ341" s="3"/>
     </row>
-    <row r="342" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -31107,7 +31122,7 @@
       <c r="CI342" s="3"/>
       <c r="CJ342" s="3"/>
     </row>
-    <row r="343" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -31195,7 +31210,7 @@
       <c r="CI343" s="3"/>
       <c r="CJ343" s="3"/>
     </row>
-    <row r="344" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -31283,7 +31298,7 @@
       <c r="CI344" s="3"/>
       <c r="CJ344" s="3"/>
     </row>
-    <row r="345" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -31371,7 +31386,7 @@
       <c r="CI345" s="3"/>
       <c r="CJ345" s="3"/>
     </row>
-    <row r="346" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -31459,7 +31474,7 @@
       <c r="CI346" s="3"/>
       <c r="CJ346" s="3"/>
     </row>
-    <row r="347" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -31547,7 +31562,7 @@
       <c r="CI347" s="3"/>
       <c r="CJ347" s="3"/>
     </row>
-    <row r="348" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -31635,7 +31650,7 @@
       <c r="CI348" s="3"/>
       <c r="CJ348" s="3"/>
     </row>
-    <row r="349" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -31723,7 +31738,7 @@
       <c r="CI349" s="3"/>
       <c r="CJ349" s="3"/>
     </row>
-    <row r="350" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -31811,7 +31826,7 @@
       <c r="CI350" s="3"/>
       <c r="CJ350" s="3"/>
     </row>
-    <row r="351" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -31899,7 +31914,7 @@
       <c r="CI351" s="3"/>
       <c r="CJ351" s="3"/>
     </row>
-    <row r="352" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -31987,7 +32002,7 @@
       <c r="CI352" s="3"/>
       <c r="CJ352" s="3"/>
     </row>
-    <row r="353" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -32075,7 +32090,7 @@
       <c r="CI353" s="3"/>
       <c r="CJ353" s="3"/>
     </row>
-    <row r="354" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -32163,7 +32178,7 @@
       <c r="CI354" s="3"/>
       <c r="CJ354" s="3"/>
     </row>
-    <row r="355" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -32251,7 +32266,7 @@
       <c r="CI355" s="3"/>
       <c r="CJ355" s="3"/>
     </row>
-    <row r="356" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -32339,7 +32354,7 @@
       <c r="CI356" s="3"/>
       <c r="CJ356" s="3"/>
     </row>
-    <row r="357" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -32427,7 +32442,7 @@
       <c r="CI357" s="3"/>
       <c r="CJ357" s="3"/>
     </row>
-    <row r="358" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -32515,7 +32530,7 @@
       <c r="CI358" s="3"/>
       <c r="CJ358" s="3"/>
     </row>
-    <row r="359" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -32603,7 +32618,7 @@
       <c r="CI359" s="3"/>
       <c r="CJ359" s="3"/>
     </row>
-    <row r="360" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -32691,7 +32706,7 @@
       <c r="CI360" s="3"/>
       <c r="CJ360" s="3"/>
     </row>
-    <row r="361" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -32779,7 +32794,7 @@
       <c r="CI361" s="3"/>
       <c r="CJ361" s="3"/>
     </row>
-    <row r="362" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -32867,7 +32882,7 @@
       <c r="CI362" s="3"/>
       <c r="CJ362" s="3"/>
     </row>
-    <row r="363" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -32955,7 +32970,7 @@
       <c r="CI363" s="3"/>
       <c r="CJ363" s="3"/>
     </row>
-    <row r="364" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -33043,7 +33058,7 @@
       <c r="CI364" s="3"/>
       <c r="CJ364" s="3"/>
     </row>
-    <row r="365" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -33131,7 +33146,7 @@
       <c r="CI365" s="3"/>
       <c r="CJ365" s="3"/>
     </row>
-    <row r="366" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -33219,7 +33234,7 @@
       <c r="CI366" s="3"/>
       <c r="CJ366" s="3"/>
     </row>
-    <row r="367" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -33307,7 +33322,7 @@
       <c r="CI367" s="3"/>
       <c r="CJ367" s="3"/>
     </row>
-    <row r="368" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -33395,7 +33410,7 @@
       <c r="CI368" s="3"/>
       <c r="CJ368" s="3"/>
     </row>
-    <row r="369" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -33483,7 +33498,7 @@
       <c r="CI369" s="3"/>
       <c r="CJ369" s="3"/>
     </row>
-    <row r="370" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -33571,7 +33586,7 @@
       <c r="CI370" s="3"/>
       <c r="CJ370" s="3"/>
     </row>
-    <row r="371" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -33659,7 +33674,7 @@
       <c r="CI371" s="3"/>
       <c r="CJ371" s="3"/>
     </row>
-    <row r="372" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -33747,7 +33762,7 @@
       <c r="CI372" s="3"/>
       <c r="CJ372" s="3"/>
     </row>
-    <row r="373" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -33835,7 +33850,7 @@
       <c r="CI373" s="3"/>
       <c r="CJ373" s="3"/>
     </row>
-    <row r="374" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -33923,7 +33938,7 @@
       <c r="CI374" s="3"/>
       <c r="CJ374" s="3"/>
     </row>
-    <row r="375" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -34011,7 +34026,7 @@
       <c r="CI375" s="3"/>
       <c r="CJ375" s="3"/>
     </row>
-    <row r="376" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -34099,7 +34114,7 @@
       <c r="CI376" s="3"/>
       <c r="CJ376" s="3"/>
     </row>
-    <row r="377" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -34187,7 +34202,7 @@
       <c r="CI377" s="3"/>
       <c r="CJ377" s="3"/>
     </row>
-    <row r="378" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -34275,7 +34290,7 @@
       <c r="CI378" s="3"/>
       <c r="CJ378" s="3"/>
     </row>
-    <row r="379" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -34363,7 +34378,7 @@
       <c r="CI379" s="3"/>
       <c r="CJ379" s="3"/>
     </row>
-    <row r="380" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -34451,7 +34466,7 @@
       <c r="CI380" s="3"/>
       <c r="CJ380" s="3"/>
     </row>
-    <row r="381" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -34539,7 +34554,7 @@
       <c r="CI381" s="3"/>
       <c r="CJ381" s="3"/>
     </row>
-    <row r="382" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -34627,7 +34642,7 @@
       <c r="CI382" s="3"/>
       <c r="CJ382" s="3"/>
     </row>
-    <row r="383" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -34715,7 +34730,7 @@
       <c r="CI383" s="3"/>
       <c r="CJ383" s="3"/>
     </row>
-    <row r="384" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -34803,7 +34818,7 @@
       <c r="CI384" s="3"/>
       <c r="CJ384" s="3"/>
     </row>
-    <row r="385" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -34891,7 +34906,7 @@
       <c r="CI385" s="3"/>
       <c r="CJ385" s="3"/>
     </row>
-    <row r="386" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -34979,7 +34994,7 @@
       <c r="CI386" s="3"/>
       <c r="CJ386" s="3"/>
     </row>
-    <row r="387" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -35067,7 +35082,7 @@
       <c r="CI387" s="3"/>
       <c r="CJ387" s="3"/>
     </row>
-    <row r="388" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -35155,7 +35170,7 @@
       <c r="CI388" s="3"/>
       <c r="CJ388" s="3"/>
     </row>
-    <row r="389" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -35243,7 +35258,7 @@
       <c r="CI389" s="3"/>
       <c r="CJ389" s="3"/>
     </row>
-    <row r="390" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -35331,7 +35346,7 @@
       <c r="CI390" s="3"/>
       <c r="CJ390" s="3"/>
     </row>
-    <row r="391" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -35419,7 +35434,7 @@
       <c r="CI391" s="3"/>
       <c r="CJ391" s="3"/>
     </row>
-    <row r="392" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -35507,7 +35522,7 @@
       <c r="CI392" s="3"/>
       <c r="CJ392" s="3"/>
     </row>
-    <row r="393" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -35595,7 +35610,7 @@
       <c r="CI393" s="3"/>
       <c r="CJ393" s="3"/>
     </row>
-    <row r="394" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -35683,7 +35698,7 @@
       <c r="CI394" s="3"/>
       <c r="CJ394" s="3"/>
     </row>
-    <row r="395" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -35771,7 +35786,7 @@
       <c r="CI395" s="3"/>
       <c r="CJ395" s="3"/>
     </row>
-    <row r="396" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -35859,7 +35874,7 @@
       <c r="CI396" s="3"/>
       <c r="CJ396" s="3"/>
     </row>
-    <row r="397" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -35947,7 +35962,7 @@
       <c r="CI397" s="3"/>
       <c r="CJ397" s="3"/>
     </row>
-    <row r="398" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -36035,7 +36050,7 @@
       <c r="CI398" s="3"/>
       <c r="CJ398" s="3"/>
     </row>
-    <row r="399" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -36123,7 +36138,7 @@
       <c r="CI399" s="3"/>
       <c r="CJ399" s="3"/>
     </row>
-    <row r="400" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -36211,7 +36226,7 @@
       <c r="CI400" s="3"/>
       <c r="CJ400" s="3"/>
     </row>
-    <row r="401" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -36299,7 +36314,7 @@
       <c r="CI401" s="3"/>
       <c r="CJ401" s="3"/>
     </row>
-    <row r="402" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -36387,7 +36402,7 @@
       <c r="CI402" s="3"/>
       <c r="CJ402" s="3"/>
     </row>
-    <row r="403" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -36475,7 +36490,7 @@
       <c r="CI403" s="3"/>
       <c r="CJ403" s="3"/>
     </row>
-    <row r="404" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -36563,7 +36578,7 @@
       <c r="CI404" s="3"/>
       <c r="CJ404" s="3"/>
     </row>
-    <row r="405" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -36651,7 +36666,7 @@
       <c r="CI405" s="3"/>
       <c r="CJ405" s="3"/>
     </row>
-    <row r="406" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -36739,7 +36754,7 @@
       <c r="CI406" s="3"/>
       <c r="CJ406" s="3"/>
     </row>
-    <row r="407" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -36827,7 +36842,7 @@
       <c r="CI407" s="3"/>
       <c r="CJ407" s="3"/>
     </row>
-    <row r="408" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -36915,7 +36930,7 @@
       <c r="CI408" s="3"/>
       <c r="CJ408" s="3"/>
     </row>
-    <row r="409" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -37003,7 +37018,7 @@
       <c r="CI409" s="3"/>
       <c r="CJ409" s="3"/>
     </row>
-    <row r="410" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -37091,7 +37106,7 @@
       <c r="CI410" s="3"/>
       <c r="CJ410" s="3"/>
     </row>
-    <row r="411" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -37179,7 +37194,7 @@
       <c r="CI411" s="3"/>
       <c r="CJ411" s="3"/>
     </row>
-    <row r="412" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -37267,7 +37282,7 @@
       <c r="CI412" s="3"/>
       <c r="CJ412" s="3"/>
     </row>
-    <row r="413" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -37355,7 +37370,7 @@
       <c r="CI413" s="3"/>
       <c r="CJ413" s="3"/>
     </row>
-    <row r="414" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -37443,7 +37458,7 @@
       <c r="CI414" s="3"/>
       <c r="CJ414" s="3"/>
     </row>
-    <row r="415" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -37531,7 +37546,7 @@
       <c r="CI415" s="3"/>
       <c r="CJ415" s="3"/>
     </row>
-    <row r="416" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -37619,7 +37634,7 @@
       <c r="CI416" s="3"/>
       <c r="CJ416" s="3"/>
     </row>
-    <row r="417" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -37707,7 +37722,7 @@
       <c r="CI417" s="3"/>
       <c r="CJ417" s="3"/>
     </row>
-    <row r="418" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -37795,7 +37810,7 @@
       <c r="CI418" s="3"/>
       <c r="CJ418" s="3"/>
     </row>
-    <row r="419" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -37883,7 +37898,7 @@
       <c r="CI419" s="3"/>
       <c r="CJ419" s="3"/>
     </row>
-    <row r="420" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -37971,7 +37986,7 @@
       <c r="CI420" s="3"/>
       <c r="CJ420" s="3"/>
     </row>
-    <row r="421" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -38059,7 +38074,7 @@
       <c r="CI421" s="3"/>
       <c r="CJ421" s="3"/>
     </row>
-    <row r="422" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -38147,7 +38162,7 @@
       <c r="CI422" s="3"/>
       <c r="CJ422" s="3"/>
     </row>
-    <row r="423" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -38235,7 +38250,7 @@
       <c r="CI423" s="3"/>
       <c r="CJ423" s="3"/>
     </row>
-    <row r="424" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -38323,7 +38338,7 @@
       <c r="CI424" s="3"/>
       <c r="CJ424" s="3"/>
     </row>
-    <row r="425" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -38411,7 +38426,7 @@
       <c r="CI425" s="3"/>
       <c r="CJ425" s="3"/>
     </row>
-    <row r="426" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -38499,7 +38514,7 @@
       <c r="CI426" s="3"/>
       <c r="CJ426" s="3"/>
     </row>
-    <row r="427" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -38587,7 +38602,7 @@
       <c r="CI427" s="3"/>
       <c r="CJ427" s="3"/>
     </row>
-    <row r="428" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -38675,7 +38690,7 @@
       <c r="CI428" s="3"/>
       <c r="CJ428" s="3"/>
     </row>
-    <row r="429" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -38763,7 +38778,7 @@
       <c r="CI429" s="3"/>
       <c r="CJ429" s="3"/>
     </row>
-    <row r="430" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -38851,7 +38866,7 @@
       <c r="CI430" s="3"/>
       <c r="CJ430" s="3"/>
     </row>
-    <row r="431" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -38939,7 +38954,7 @@
       <c r="CI431" s="3"/>
       <c r="CJ431" s="3"/>
     </row>
-    <row r="432" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -39027,7 +39042,7 @@
       <c r="CI432" s="3"/>
       <c r="CJ432" s="3"/>
     </row>
-    <row r="433" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -39115,7 +39130,7 @@
       <c r="CI433" s="3"/>
       <c r="CJ433" s="3"/>
     </row>
-    <row r="434" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -39203,7 +39218,7 @@
       <c r="CI434" s="3"/>
       <c r="CJ434" s="3"/>
     </row>
-    <row r="435" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -39291,7 +39306,7 @@
       <c r="CI435" s="3"/>
       <c r="CJ435" s="3"/>
     </row>
-    <row r="436" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -39379,7 +39394,7 @@
       <c r="CI436" s="3"/>
       <c r="CJ436" s="3"/>
     </row>
-    <row r="437" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -39467,7 +39482,7 @@
       <c r="CI437" s="3"/>
       <c r="CJ437" s="3"/>
     </row>
-    <row r="438" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -39555,7 +39570,7 @@
       <c r="CI438" s="3"/>
       <c r="CJ438" s="3"/>
     </row>
-    <row r="439" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -39643,7 +39658,7 @@
       <c r="CI439" s="3"/>
       <c r="CJ439" s="3"/>
     </row>
-    <row r="440" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -39731,7 +39746,7 @@
       <c r="CI440" s="3"/>
       <c r="CJ440" s="3"/>
     </row>
-    <row r="441" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -39819,7 +39834,7 @@
       <c r="CI441" s="3"/>
       <c r="CJ441" s="3"/>
     </row>
-    <row r="442" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -39907,7 +39922,7 @@
       <c r="CI442" s="3"/>
       <c r="CJ442" s="3"/>
     </row>
-    <row r="443" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -39995,7 +40010,7 @@
       <c r="CI443" s="3"/>
       <c r="CJ443" s="3"/>
     </row>
-    <row r="444" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -40083,7 +40098,7 @@
       <c r="CI444" s="3"/>
       <c r="CJ444" s="3"/>
     </row>
-    <row r="445" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -40171,7 +40186,7 @@
       <c r="CI445" s="3"/>
       <c r="CJ445" s="3"/>
     </row>
-    <row r="446" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -40259,7 +40274,7 @@
       <c r="CI446" s="3"/>
       <c r="CJ446" s="3"/>
     </row>
-    <row r="447" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -40347,7 +40362,7 @@
       <c r="CI447" s="3"/>
       <c r="CJ447" s="3"/>
     </row>
-    <row r="448" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -40435,7 +40450,7 @@
       <c r="CI448" s="3"/>
       <c r="CJ448" s="3"/>
     </row>
-    <row r="449" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -40523,7 +40538,7 @@
       <c r="CI449" s="3"/>
       <c r="CJ449" s="3"/>
     </row>
-    <row r="450" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -40611,7 +40626,7 @@
       <c r="CI450" s="3"/>
       <c r="CJ450" s="3"/>
     </row>
-    <row r="451" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -40699,7 +40714,7 @@
       <c r="CI451" s="3"/>
       <c r="CJ451" s="3"/>
     </row>
-    <row r="452" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -40787,7 +40802,7 @@
       <c r="CI452" s="3"/>
       <c r="CJ452" s="3"/>
     </row>
-    <row r="453" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -40875,7 +40890,7 @@
       <c r="CI453" s="3"/>
       <c r="CJ453" s="3"/>
     </row>
-    <row r="454" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -40963,7 +40978,7 @@
       <c r="CI454" s="3"/>
       <c r="CJ454" s="3"/>
     </row>
-    <row r="455" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -41051,7 +41066,7 @@
       <c r="CI455" s="3"/>
       <c r="CJ455" s="3"/>
     </row>
-    <row r="456" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -41139,7 +41154,7 @@
       <c r="CI456" s="3"/>
       <c r="CJ456" s="3"/>
     </row>
-    <row r="457" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -41227,7 +41242,7 @@
       <c r="CI457" s="3"/>
       <c r="CJ457" s="3"/>
     </row>
-    <row r="458" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -41315,7 +41330,7 @@
       <c r="CI458" s="3"/>
       <c r="CJ458" s="3"/>
     </row>
-    <row r="459" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -41403,7 +41418,7 @@
       <c r="CI459" s="3"/>
       <c r="CJ459" s="3"/>
     </row>
-    <row r="460" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -41491,7 +41506,7 @@
       <c r="CI460" s="3"/>
       <c r="CJ460" s="3"/>
     </row>
-    <row r="461" spans="3:88" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:88" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>

--- a/SHOO.xlsx
+++ b/SHOO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A6FE7D-8F72-4444-8032-AC4BD4D6E82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6233FBB0-234D-411B-865D-FA6D4F342F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{C42A3123-EC18-4E9E-AA0A-1C921C0157F2}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{C42A3123-EC18-4E9E-AA0A-1C921C0157F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t xml:space="preserve">Steve Madden </t>
   </si>
@@ -176,21 +176,49 @@
   <si>
     <t>Revenue Growth</t>
   </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -247,21 +275,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -600,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E5FAB1-7857-4044-9F1A-EB10836B53BE}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -623,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2">
-        <v>37.49</v>
+        <v>33.92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -631,10 +666,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="3">
-        <v>72.191023999999999</v>
+        <v>72.652392000000006</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
+      <c r="I3" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -646,7 +681,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>2706.44148976</v>
+        <v>2464.3691366400003</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -657,11 +692,11 @@
         <v>7</v>
       </c>
       <c r="H5" s="3">
-        <f>139.414+11.064</f>
-        <v>150.47799999999998</v>
+        <f>111.174+0.14</f>
+        <v>111.31400000000001</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>10</v>
+      <c r="I5" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -669,10 +704,11 @@
         <v>8</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <f>287.865+5.625</f>
+        <v>293.49</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>10</v>
+      <c r="I6" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -681,7 +717,7 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>2555.9634897599999</v>
+        <v>2646.5451366400002</v>
       </c>
     </row>
   </sheetData>
@@ -693,11 +729,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C277DD-45C1-4275-B957-315A1F685854}">
   <dimension ref="A1:CJ461"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -707,12 +743,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -737,1933 +773,657 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="K2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
+      <c r="E3" s="12">
         <v>306.05799999999999</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="G3" s="12">
+        <v>295.66000000000003</v>
+      </c>
+      <c r="H3" s="12">
+        <v>237.024</v>
+      </c>
+      <c r="I3" s="12">
         <v>299.315</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-      <c r="BJ3" s="3"/>
-      <c r="BK3" s="3"/>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
-      <c r="BN3" s="3"/>
-      <c r="BO3" s="3"/>
-      <c r="BP3" s="3"/>
-      <c r="BQ3" s="3"/>
-      <c r="BR3" s="3"/>
-      <c r="BS3" s="3"/>
-      <c r="BT3" s="3"/>
-      <c r="BU3" s="3"/>
-      <c r="BV3" s="3"/>
-      <c r="BW3" s="3"/>
-      <c r="BX3" s="3"/>
-      <c r="BY3" s="3"/>
-      <c r="BZ3" s="3"/>
-      <c r="CA3" s="3"/>
-      <c r="CB3" s="3"/>
-      <c r="CC3" s="3"/>
-      <c r="CD3" s="3"/>
-      <c r="CE3" s="3"/>
-      <c r="CF3" s="3"/>
-      <c r="CG3" s="3"/>
-      <c r="CH3" s="3"/>
-      <c r="CI3" s="3"/>
-      <c r="CJ3" s="3"/>
-    </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="K3" s="12">
+        <v>296.14499999999998</v>
+      </c>
+      <c r="L3" s="12">
+        <v>220.13900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
         <v>127.395</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="G4" s="12">
+        <v>142.57599999999999</v>
+      </c>
+      <c r="H4" s="12">
+        <v>148.27600000000001</v>
+      </c>
+      <c r="I4" s="12">
         <v>196.4</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
-      <c r="BT4" s="3"/>
-      <c r="BU4" s="3"/>
-      <c r="BV4" s="3"/>
-      <c r="BW4" s="3"/>
-      <c r="BX4" s="3"/>
-      <c r="BY4" s="3"/>
-      <c r="BZ4" s="3"/>
-      <c r="CA4" s="3"/>
-      <c r="CB4" s="3"/>
-      <c r="CC4" s="3"/>
-      <c r="CD4" s="3"/>
-      <c r="CE4" s="3"/>
-      <c r="CF4" s="3"/>
-      <c r="CG4" s="3"/>
-      <c r="CH4" s="3"/>
-      <c r="CI4" s="3"/>
-      <c r="CJ4" s="3"/>
-    </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="K4" s="12">
+        <v>143.173</v>
+      </c>
+      <c r="L4" s="12">
+        <v>140.44900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
+      <c r="E5" s="12">
         <v>116.193</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
+      <c r="G5" s="12">
+        <v>112.331</v>
+      </c>
+      <c r="H5" s="12">
+        <v>136.40899999999999</v>
+      </c>
+      <c r="I5" s="12">
         <v>125.455</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="3"/>
-      <c r="BI5" s="3"/>
-      <c r="BJ5" s="3"/>
-      <c r="BK5" s="3"/>
-      <c r="BL5" s="3"/>
-      <c r="BM5" s="3"/>
-      <c r="BN5" s="3"/>
-      <c r="BO5" s="3"/>
-      <c r="BP5" s="3"/>
-      <c r="BQ5" s="3"/>
-      <c r="BR5" s="3"/>
-      <c r="BS5" s="3"/>
-      <c r="BT5" s="3"/>
-      <c r="BU5" s="3"/>
-      <c r="BV5" s="3"/>
-      <c r="BW5" s="3"/>
-      <c r="BX5" s="3"/>
-      <c r="BY5" s="3"/>
-      <c r="BZ5" s="3"/>
-      <c r="CA5" s="3"/>
-      <c r="CB5" s="3"/>
-      <c r="CC5" s="3"/>
-      <c r="CD5" s="3"/>
-      <c r="CE5" s="3"/>
-      <c r="CF5" s="3"/>
-      <c r="CG5" s="3"/>
-      <c r="CH5" s="3"/>
-      <c r="CI5" s="3"/>
-      <c r="CJ5" s="3"/>
-    </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="K5" s="12">
+        <v>112.06399999999999</v>
+      </c>
+      <c r="L5" s="12">
+        <v>195.50200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
         <v>2.8860000000000001</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="G6" s="12">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="I6" s="12">
         <v>3.5049999999999999</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="3"/>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="3"/>
-      <c r="BI6" s="3"/>
-      <c r="BJ6" s="3"/>
-      <c r="BK6" s="3"/>
-      <c r="BL6" s="3"/>
-      <c r="BM6" s="3"/>
-      <c r="BN6" s="3"/>
-      <c r="BO6" s="3"/>
-      <c r="BP6" s="3"/>
-      <c r="BQ6" s="3"/>
-      <c r="BR6" s="3"/>
-      <c r="BS6" s="3"/>
-      <c r="BT6" s="3"/>
-      <c r="BU6" s="3"/>
-      <c r="BV6" s="3"/>
-      <c r="BW6" s="3"/>
-      <c r="BX6" s="3"/>
-      <c r="BY6" s="3"/>
-      <c r="BZ6" s="3"/>
-      <c r="CA6" s="3"/>
-      <c r="CB6" s="3"/>
-      <c r="CC6" s="3"/>
-      <c r="CD6" s="3"/>
-      <c r="CE6" s="3"/>
-      <c r="CF6" s="3"/>
-      <c r="CG6" s="3"/>
-      <c r="CH6" s="3"/>
-      <c r="CI6" s="3"/>
-      <c r="CJ6" s="3"/>
-    </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="K6" s="12">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="L6" s="12">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
         <v>549.846</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="G7" s="12">
+        <v>550.56700000000001</v>
+      </c>
+      <c r="H7" s="12">
+        <v>521.70899999999995</v>
+      </c>
+      <c r="I7" s="12">
         <v>621.16999999999996</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
-      <c r="BL7" s="3"/>
-      <c r="BM7" s="3"/>
-      <c r="BN7" s="3"/>
-      <c r="BO7" s="3"/>
-      <c r="BP7" s="3"/>
-      <c r="BQ7" s="3"/>
-      <c r="BR7" s="3"/>
-      <c r="BS7" s="3"/>
-      <c r="BT7" s="3"/>
-      <c r="BU7" s="3"/>
-      <c r="BV7" s="3"/>
-      <c r="BW7" s="3"/>
-      <c r="BX7" s="3"/>
-      <c r="BY7" s="3"/>
-      <c r="BZ7" s="3"/>
-      <c r="CA7" s="3"/>
-      <c r="CB7" s="3"/>
-      <c r="CC7" s="3"/>
-      <c r="CD7" s="3"/>
-      <c r="CE7" s="3"/>
-      <c r="CF7" s="3"/>
-      <c r="CG7" s="3"/>
-      <c r="CH7" s="3"/>
-      <c r="CI7" s="3"/>
-      <c r="CJ7" s="3"/>
-    </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="K7" s="12">
+        <v>551.38199999999995</v>
+      </c>
+      <c r="L7" s="12">
+        <v>556.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
         <v>2.8860000000000001</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="G8" s="12">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="I8" s="12">
         <v>3.5049999999999999</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
-      <c r="BL8" s="3"/>
-      <c r="BM8" s="3"/>
-      <c r="BN8" s="3"/>
-      <c r="BO8" s="3"/>
-      <c r="BP8" s="3"/>
-      <c r="BQ8" s="3"/>
-      <c r="BR8" s="3"/>
-      <c r="BS8" s="3"/>
-      <c r="BT8" s="3"/>
-      <c r="BU8" s="3"/>
-      <c r="BV8" s="3"/>
-      <c r="BW8" s="3"/>
-      <c r="BX8" s="3"/>
-      <c r="BY8" s="3"/>
-      <c r="BZ8" s="3"/>
-      <c r="CA8" s="3"/>
-      <c r="CB8" s="3"/>
-      <c r="CC8" s="3"/>
-      <c r="CD8" s="3"/>
-      <c r="CE8" s="3"/>
-      <c r="CF8" s="3"/>
-      <c r="CG8" s="3"/>
-      <c r="CH8" s="3"/>
-      <c r="CI8" s="3"/>
-      <c r="CJ8" s="3"/>
-    </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="K8" s="12">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="L8" s="12">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="13">
         <f t="shared" ref="C9:H9" si="0">+C7+C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>552.73199999999997</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>552.38099999999997</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>523.553</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="13">
         <f>+I7+I8</f>
         <v>624.67499999999995</v>
       </c>
-      <c r="J9" s="6">
-        <f t="shared" ref="J9" si="1">+J7+J8</f>
+      <c r="J9" s="13">
+        <f t="shared" ref="J9:N9" si="1">+J7+J8</f>
         <v>0</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="3"/>
-      <c r="BE9" s="3"/>
-      <c r="BF9" s="3"/>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="3"/>
-      <c r="BI9" s="3"/>
-      <c r="BJ9" s="3"/>
-      <c r="BK9" s="3"/>
-      <c r="BL9" s="3"/>
-      <c r="BM9" s="3"/>
-      <c r="BN9" s="3"/>
-      <c r="BO9" s="3"/>
-      <c r="BP9" s="3"/>
-      <c r="BQ9" s="3"/>
-      <c r="BR9" s="3"/>
-      <c r="BS9" s="3"/>
-      <c r="BT9" s="3"/>
-      <c r="BU9" s="3"/>
-      <c r="BV9" s="3"/>
-      <c r="BW9" s="3"/>
-      <c r="BX9" s="3"/>
-      <c r="BY9" s="3"/>
-      <c r="BZ9" s="3"/>
-      <c r="CA9" s="3"/>
-      <c r="CB9" s="3"/>
-      <c r="CC9" s="3"/>
-      <c r="CD9" s="3"/>
-      <c r="CE9" s="3"/>
-      <c r="CF9" s="3"/>
-      <c r="CG9" s="3"/>
-      <c r="CH9" s="3"/>
-      <c r="CI9" s="3"/>
-      <c r="CJ9" s="3"/>
-    </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="K9" s="13">
+        <f t="shared" si="1"/>
+        <v>553.53399999999999</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="1"/>
+        <v>559</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
         <v>320.10700000000003</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
+      <c r="G10" s="12">
+        <v>327.56599999999997</v>
+      </c>
+      <c r="H10" s="12">
+        <v>306.42399999999998</v>
+      </c>
+      <c r="I10" s="12">
         <v>365.13099999999997</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3"/>
-      <c r="BJ10" s="3"/>
-      <c r="BK10" s="3"/>
-      <c r="BL10" s="3"/>
-      <c r="BM10" s="3"/>
-      <c r="BN10" s="3"/>
-      <c r="BO10" s="3"/>
-      <c r="BP10" s="3"/>
-      <c r="BQ10" s="3"/>
-      <c r="BR10" s="3"/>
-      <c r="BS10" s="3"/>
-      <c r="BT10" s="3"/>
-      <c r="BU10" s="3"/>
-      <c r="BV10" s="3"/>
-      <c r="BW10" s="3"/>
-      <c r="BX10" s="3"/>
-      <c r="BY10" s="3"/>
-      <c r="BZ10" s="3"/>
-      <c r="CA10" s="3"/>
-      <c r="CB10" s="3"/>
-      <c r="CC10" s="3"/>
-      <c r="CD10" s="3"/>
-      <c r="CE10" s="3"/>
-      <c r="CF10" s="3"/>
-      <c r="CG10" s="3"/>
-      <c r="CH10" s="3"/>
-      <c r="CI10" s="3"/>
-      <c r="CJ10" s="3"/>
-    </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="K10" s="12">
+        <v>327.267</v>
+      </c>
+      <c r="L10" s="12">
+        <v>332.97300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="12">
         <f t="shared" ref="C11:H11" si="2">+C9-C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="12">
         <f t="shared" si="2"/>
         <v>232.62499999999994</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>224.815</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>217.12900000000002</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="12">
         <f>+I9-I10</f>
         <v>259.54399999999998</v>
       </c>
-      <c r="J11" s="3">
-        <f t="shared" ref="J11" si="3">+J9-J10</f>
+      <c r="J11" s="12">
+        <f t="shared" ref="J11:N11" si="3">+J9-J10</f>
         <v>0</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3"/>
-      <c r="BD11" s="3"/>
-      <c r="BE11" s="3"/>
-      <c r="BF11" s="3"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3"/>
-      <c r="BI11" s="3"/>
-      <c r="BJ11" s="3"/>
-      <c r="BK11" s="3"/>
-      <c r="BL11" s="3"/>
-      <c r="BM11" s="3"/>
-      <c r="BN11" s="3"/>
-      <c r="BO11" s="3"/>
-      <c r="BP11" s="3"/>
-      <c r="BQ11" s="3"/>
-      <c r="BR11" s="3"/>
-      <c r="BS11" s="3"/>
-      <c r="BT11" s="3"/>
-      <c r="BU11" s="3"/>
-      <c r="BV11" s="3"/>
-      <c r="BW11" s="3"/>
-      <c r="BX11" s="3"/>
-      <c r="BY11" s="3"/>
-      <c r="BZ11" s="3"/>
-      <c r="CA11" s="3"/>
-      <c r="CB11" s="3"/>
-      <c r="CC11" s="3"/>
-      <c r="CD11" s="3"/>
-      <c r="CE11" s="3"/>
-      <c r="CF11" s="3"/>
-      <c r="CG11" s="3"/>
-      <c r="CH11" s="3"/>
-      <c r="CI11" s="3"/>
-      <c r="CJ11" s="3"/>
-    </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="K11" s="12">
+        <f t="shared" si="3"/>
+        <v>226.267</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="3"/>
+        <v>226.02699999999999</v>
+      </c>
+      <c r="M11" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
+      <c r="E12" s="12">
         <v>149.887</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
+      <c r="G12" s="12">
+        <v>164.71899999999999</v>
+      </c>
+      <c r="H12" s="12">
+        <v>163.709</v>
+      </c>
+      <c r="I12" s="12">
         <v>178.91499999999999</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
-      <c r="BN12" s="3"/>
-      <c r="BO12" s="3"/>
-      <c r="BP12" s="3"/>
-      <c r="BQ12" s="3"/>
-      <c r="BR12" s="3"/>
-      <c r="BS12" s="3"/>
-      <c r="BT12" s="3"/>
-      <c r="BU12" s="3"/>
-      <c r="BV12" s="3"/>
-      <c r="BW12" s="3"/>
-      <c r="BX12" s="3"/>
-      <c r="BY12" s="3"/>
-      <c r="BZ12" s="3"/>
-      <c r="CA12" s="3"/>
-      <c r="CB12" s="3"/>
-      <c r="CC12" s="3"/>
-      <c r="CD12" s="3"/>
-      <c r="CE12" s="3"/>
-      <c r="CF12" s="3"/>
-      <c r="CG12" s="3"/>
-      <c r="CH12" s="3"/>
-      <c r="CI12" s="3"/>
-      <c r="CJ12" s="3"/>
-    </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="K12" s="12">
+        <v>177.26300000000001</v>
+      </c>
+      <c r="L12" s="12">
+        <v>263.86500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="E13" s="12">
         <v>0</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
+      <c r="G13" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="H13" s="12">
+        <v>6.55</v>
+      </c>
+      <c r="I13" s="12">
         <v>-2.5840000000000001</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="3"/>
-      <c r="BK13" s="3"/>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-      <c r="BP13" s="3"/>
-      <c r="BQ13" s="3"/>
-      <c r="BR13" s="3"/>
-      <c r="BS13" s="3"/>
-      <c r="BT13" s="3"/>
-      <c r="BU13" s="3"/>
-      <c r="BV13" s="3"/>
-      <c r="BW13" s="3"/>
-      <c r="BX13" s="3"/>
-      <c r="BY13" s="3"/>
-      <c r="BZ13" s="3"/>
-      <c r="CA13" s="3"/>
-      <c r="CB13" s="3"/>
-      <c r="CC13" s="3"/>
-      <c r="CD13" s="3"/>
-      <c r="CE13" s="3"/>
-      <c r="CF13" s="3"/>
-      <c r="CG13" s="3"/>
-      <c r="CH13" s="3"/>
-      <c r="CI13" s="3"/>
-      <c r="CJ13" s="3"/>
-    </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="K13" s="12">
+        <v>-4.4950000000000001</v>
+      </c>
+      <c r="L13" s="12">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
+      <c r="E14" s="12">
         <v>0</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
+      <c r="G14" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
         <v>8.6349999999999998</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
-      <c r="BK14" s="3"/>
-      <c r="BL14" s="3"/>
-      <c r="BM14" s="3"/>
-      <c r="BN14" s="3"/>
-      <c r="BO14" s="3"/>
-      <c r="BP14" s="3"/>
-      <c r="BQ14" s="3"/>
-      <c r="BR14" s="3"/>
-      <c r="BS14" s="3"/>
-      <c r="BT14" s="3"/>
-      <c r="BU14" s="3"/>
-      <c r="BV14" s="3"/>
-      <c r="BW14" s="3"/>
-      <c r="BX14" s="3"/>
-      <c r="BY14" s="3"/>
-      <c r="BZ14" s="3"/>
-      <c r="CA14" s="3"/>
-      <c r="CB14" s="3"/>
-      <c r="CC14" s="3"/>
-      <c r="CD14" s="3"/>
-      <c r="CE14" s="3"/>
-      <c r="CF14" s="3"/>
-      <c r="CG14" s="3"/>
-      <c r="CH14" s="3"/>
-      <c r="CI14" s="3"/>
-      <c r="CJ14" s="3"/>
-    </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="12">
         <f t="shared" ref="C15:H15" si="4">+C11-SUM(C12:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="12">
         <f t="shared" si="4"/>
         <v>82.737999999999943</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>56.746000000000009</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>46.870000000000005</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="12">
         <f>+I11-SUM(I12:I14)</f>
         <v>74.578000000000003</v>
       </c>
-      <c r="J15" s="3">
-        <f t="shared" ref="J15" si="5">+J11-SUM(J12:J14)</f>
+      <c r="J15" s="12">
+        <f t="shared" ref="J15:N15" si="5">+J11-SUM(J12:J14)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BL15" s="3"/>
-      <c r="BM15" s="3"/>
-      <c r="BN15" s="3"/>
-      <c r="BO15" s="3"/>
-      <c r="BP15" s="3"/>
-      <c r="BQ15" s="3"/>
-      <c r="BR15" s="3"/>
-      <c r="BS15" s="3"/>
-      <c r="BT15" s="3"/>
-      <c r="BU15" s="3"/>
-      <c r="BV15" s="3"/>
-      <c r="BW15" s="3"/>
-      <c r="BX15" s="3"/>
-      <c r="BY15" s="3"/>
-      <c r="BZ15" s="3"/>
-      <c r="CA15" s="3"/>
-      <c r="CB15" s="3"/>
-      <c r="CC15" s="3"/>
-      <c r="CD15" s="3"/>
-      <c r="CE15" s="3"/>
-      <c r="CF15" s="3"/>
-      <c r="CG15" s="3"/>
-      <c r="CH15" s="3"/>
-      <c r="CI15" s="3"/>
-      <c r="CJ15" s="3"/>
-    </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="K15" s="12">
+        <f t="shared" si="5"/>
+        <v>53.498999999999995</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="5"/>
+        <v>-40.258000000000038</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
+      <c r="E16" s="12">
         <v>1.9219999999999999</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
+      <c r="G16" s="12">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1.353</v>
+      </c>
+      <c r="I16" s="12">
         <v>1.4</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3"/>
-      <c r="BJ16" s="3"/>
-      <c r="BK16" s="3"/>
-      <c r="BL16" s="3"/>
-      <c r="BM16" s="3"/>
-      <c r="BN16" s="3"/>
-      <c r="BO16" s="3"/>
-      <c r="BP16" s="3"/>
-      <c r="BQ16" s="3"/>
-      <c r="BR16" s="3"/>
-      <c r="BS16" s="3"/>
-      <c r="BT16" s="3"/>
-      <c r="BU16" s="3"/>
-      <c r="BV16" s="3"/>
-      <c r="BW16" s="3"/>
-      <c r="BX16" s="3"/>
-      <c r="BY16" s="3"/>
-      <c r="BZ16" s="3"/>
-      <c r="CA16" s="3"/>
-      <c r="CB16" s="3"/>
-      <c r="CC16" s="3"/>
-      <c r="CD16" s="3"/>
-      <c r="CE16" s="3"/>
-      <c r="CF16" s="3"/>
-      <c r="CG16" s="3"/>
-      <c r="CH16" s="3"/>
-      <c r="CI16" s="3"/>
-      <c r="CJ16" s="3"/>
-    </row>
-    <row r="17" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="K16" s="12">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="L16" s="12">
+        <f>9.252-3.795</f>
+        <v>5.4570000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="12">
         <f t="shared" ref="C17:H17" si="6">+C15+C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="12">
         <f t="shared" si="6"/>
         <v>84.65999999999994</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>58.301000000000009</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>48.223000000000006</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="12">
         <f>+I15+I16</f>
         <v>75.978000000000009</v>
       </c>
-      <c r="J17" s="3">
-        <f t="shared" ref="J17" si="7">+J15+J16</f>
+      <c r="J17" s="12">
+        <f t="shared" ref="J17:N17" si="7">+J15+J16</f>
         <v>0</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3"/>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3"/>
-      <c r="BL17" s="3"/>
-      <c r="BM17" s="3"/>
-      <c r="BN17" s="3"/>
-      <c r="BO17" s="3"/>
-      <c r="BP17" s="3"/>
-      <c r="BQ17" s="3"/>
-      <c r="BR17" s="3"/>
-      <c r="BS17" s="3"/>
-      <c r="BT17" s="3"/>
-      <c r="BU17" s="3"/>
-      <c r="BV17" s="3"/>
-      <c r="BW17" s="3"/>
-      <c r="BX17" s="3"/>
-      <c r="BY17" s="3"/>
-      <c r="BZ17" s="3"/>
-      <c r="CA17" s="3"/>
-      <c r="CB17" s="3"/>
-      <c r="CC17" s="3"/>
-      <c r="CD17" s="3"/>
-      <c r="CE17" s="3"/>
-      <c r="CF17" s="3"/>
-      <c r="CG17" s="3"/>
-      <c r="CH17" s="3"/>
-      <c r="CI17" s="3"/>
-      <c r="CJ17" s="3"/>
-    </row>
-    <row r="18" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="K17" s="12">
+        <f t="shared" si="7"/>
+        <v>54.327999999999996</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="7"/>
+        <v>-34.801000000000037</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3">
+      <c r="E18" s="12">
         <v>19.552</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
+      <c r="G18" s="12">
+        <v>13.739000000000001</v>
+      </c>
+      <c r="H18" s="12">
+        <v>11.276</v>
+      </c>
+      <c r="I18" s="12">
         <v>19.39</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
-      <c r="BL18" s="3"/>
-      <c r="BM18" s="3"/>
-      <c r="BN18" s="3"/>
-      <c r="BO18" s="3"/>
-      <c r="BP18" s="3"/>
-      <c r="BQ18" s="3"/>
-      <c r="BR18" s="3"/>
-      <c r="BS18" s="3"/>
-      <c r="BT18" s="3"/>
-      <c r="BU18" s="3"/>
-      <c r="BV18" s="3"/>
-      <c r="BW18" s="3"/>
-      <c r="BX18" s="3"/>
-      <c r="BY18" s="3"/>
-      <c r="BZ18" s="3"/>
-      <c r="CA18" s="3"/>
-      <c r="CB18" s="3"/>
-      <c r="CC18" s="3"/>
-      <c r="CD18" s="3"/>
-      <c r="CE18" s="3"/>
-      <c r="CF18" s="3"/>
-      <c r="CG18" s="3"/>
-      <c r="CH18" s="3"/>
-      <c r="CI18" s="3"/>
-      <c r="CJ18" s="3"/>
-    </row>
-    <row r="19" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="K18" s="12">
+        <v>13.068</v>
+      </c>
+      <c r="L18" s="12">
+        <v>3.911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="12">
         <f t="shared" ref="C19:H19" si="8">+C17-C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="12">
         <f t="shared" si="8"/>
         <v>65.107999999999947</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>44.562000000000012</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>36.947000000000003</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="12">
         <f>+I17-I18</f>
         <v>56.588000000000008</v>
       </c>
-      <c r="J19" s="3">
-        <f t="shared" ref="J19" si="9">+J17-J18</f>
+      <c r="J19" s="12">
+        <f t="shared" ref="J19:N19" si="9">+J17-J18</f>
         <v>0</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="3"/>
-      <c r="BJ19" s="3"/>
-      <c r="BK19" s="3"/>
-      <c r="BL19" s="3"/>
-      <c r="BM19" s="3"/>
-      <c r="BN19" s="3"/>
-      <c r="BO19" s="3"/>
-      <c r="BP19" s="3"/>
-      <c r="BQ19" s="3"/>
-      <c r="BR19" s="3"/>
-      <c r="BS19" s="3"/>
-      <c r="BT19" s="3"/>
-      <c r="BU19" s="3"/>
-      <c r="BV19" s="3"/>
-      <c r="BW19" s="3"/>
-      <c r="BX19" s="3"/>
-      <c r="BY19" s="3"/>
-      <c r="BZ19" s="3"/>
-      <c r="CA19" s="3"/>
-      <c r="CB19" s="3"/>
-      <c r="CC19" s="3"/>
-      <c r="CD19" s="3"/>
-      <c r="CE19" s="3"/>
-      <c r="CF19" s="3"/>
-      <c r="CG19" s="3"/>
-      <c r="CH19" s="3"/>
-      <c r="CI19" s="3"/>
-      <c r="CJ19" s="3"/>
-    </row>
-    <row r="20" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="K19" s="12">
+        <f t="shared" si="9"/>
+        <v>41.26</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="9"/>
+        <v>-38.712000000000039</v>
+      </c>
+      <c r="M19" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
+      <c r="E20" s="12">
         <v>0.69499999999999995</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3">
+      <c r="G20" s="12">
+        <v>0.628</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="I20" s="12">
         <v>1.31</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
-      <c r="BC20" s="3"/>
-      <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
-      <c r="BF20" s="3"/>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
-      <c r="BI20" s="3"/>
-      <c r="BJ20" s="3"/>
-      <c r="BK20" s="3"/>
-      <c r="BL20" s="3"/>
-      <c r="BM20" s="3"/>
-      <c r="BN20" s="3"/>
-      <c r="BO20" s="3"/>
-      <c r="BP20" s="3"/>
-      <c r="BQ20" s="3"/>
-      <c r="BR20" s="3"/>
-      <c r="BS20" s="3"/>
-      <c r="BT20" s="3"/>
-      <c r="BU20" s="3"/>
-      <c r="BV20" s="3"/>
-      <c r="BW20" s="3"/>
-      <c r="BX20" s="3"/>
-      <c r="BY20" s="3"/>
-      <c r="BZ20" s="3"/>
-      <c r="CA20" s="3"/>
-      <c r="CB20" s="3"/>
-      <c r="CC20" s="3"/>
-      <c r="CD20" s="3"/>
-      <c r="CE20" s="3"/>
-      <c r="CF20" s="3"/>
-      <c r="CG20" s="3"/>
-      <c r="CH20" s="3"/>
-      <c r="CI20" s="3"/>
-      <c r="CJ20" s="3"/>
-    </row>
-    <row r="21" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="K20" s="12">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="12">
         <f t="shared" ref="C21:H21" si="10">+C19-C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="12">
         <f t="shared" si="10"/>
         <v>64.412999999999954</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>43.934000000000012</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>35.375</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="12">
         <f>+I19-I20</f>
         <v>55.278000000000006</v>
       </c>
-      <c r="J21" s="3">
-        <f t="shared" ref="J21" si="11">+J19-J20</f>
+      <c r="J21" s="12">
+        <f t="shared" ref="J21:N21" si="11">+J19-J20</f>
         <v>0</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="3"/>
-      <c r="BD21" s="3"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="3"/>
-      <c r="BI21" s="3"/>
-      <c r="BJ21" s="3"/>
-      <c r="BK21" s="3"/>
-      <c r="BL21" s="3"/>
-      <c r="BM21" s="3"/>
-      <c r="BN21" s="3"/>
-      <c r="BO21" s="3"/>
-      <c r="BP21" s="3"/>
-      <c r="BQ21" s="3"/>
-      <c r="BR21" s="3"/>
-      <c r="BS21" s="3"/>
-      <c r="BT21" s="3"/>
-      <c r="BU21" s="3"/>
-      <c r="BV21" s="3"/>
-      <c r="BW21" s="3"/>
-      <c r="BX21" s="3"/>
-      <c r="BY21" s="3"/>
-      <c r="BZ21" s="3"/>
-      <c r="CA21" s="3"/>
-      <c r="CB21" s="3"/>
-      <c r="CC21" s="3"/>
-      <c r="CD21" s="3"/>
-      <c r="CE21" s="3"/>
-      <c r="CF21" s="3"/>
-      <c r="CG21" s="3"/>
-      <c r="CH21" s="3"/>
-      <c r="CI21" s="3"/>
-      <c r="CJ21" s="3"/>
-    </row>
-    <row r="22" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="K21" s="12">
+        <f t="shared" si="11"/>
+        <v>40.422999999999995</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="11"/>
+        <v>-39.477000000000039</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:88" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2751,7 +1511,7 @@
       <c r="CI22" s="3"/>
       <c r="CJ22" s="3"/>
     </row>
-    <row r="23" spans="2:88" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
@@ -2768,16 +1528,16 @@
         <v>0.88305937512852439</v>
       </c>
       <c r="F23" s="7" t="e">
-        <f t="shared" ref="F23:J23" si="13">+F21/F24</f>
+        <f t="shared" ref="F23:N23" si="13">+F21/F24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="7" t="e">
+      <c r="G23" s="7">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.60772976262933676</v>
       </c>
-      <c r="H23" s="7" t="e">
+      <c r="H23" s="7">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.49504604103109517</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="13"/>
@@ -2787,10 +1547,22 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="K23" s="7">
+        <f t="shared" si="13"/>
+        <v>0.5711641445183897</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="13"/>
+        <v>-0.55703400592634456</v>
+      </c>
+      <c r="M23" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -2866,7 +1638,7 @@
       <c r="CI23" s="3"/>
       <c r="CJ23" s="3"/>
     </row>
-    <row r="24" spans="2:88" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
@@ -2876,14 +1648,22 @@
         <v>72.942999999999998</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="3">
+        <v>72.292000000000002</v>
+      </c>
+      <c r="H24" s="3">
+        <v>71.457999999999998</v>
+      </c>
       <c r="I24" s="3">
         <v>70.805999999999997</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="K24" s="3">
+        <v>70.772999999999996</v>
+      </c>
+      <c r="L24" s="3">
+        <v>70.87</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2961,7 +1741,7 @@
       <c r="CI24" s="3"/>
       <c r="CJ24" s="3"/>
     </row>
-    <row r="25" spans="2:88" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:88" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -3049,7 +1829,7 @@
       <c r="CI25" s="3"/>
       <c r="CJ25" s="3"/>
     </row>
-    <row r="26" spans="2:88" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
@@ -3070,13 +1850,25 @@
         <v>-2.2031771755680274E-2</v>
       </c>
       <c r="J26" s="8" t="e">
-        <f t="shared" ref="J26:J32" si="15">+J3/F3-1</f>
+        <f t="shared" ref="J26:N32" si="15">+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="K26" s="8">
+        <f t="shared" si="15"/>
+        <v>1.6403977541770143E-3</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="15"/>
+        <v>-7.1237511813149634E-2</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="N26" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -3152,7 +1944,7 @@
       <c r="CI26" s="3"/>
       <c r="CJ26" s="3"/>
     </row>
-    <row r="27" spans="2:88" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
@@ -3176,10 +1968,22 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="K27" s="8">
+        <f t="shared" si="15"/>
+        <v>4.187240489282873E-3</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="15"/>
+        <v>-5.2786695082144064E-2</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="N27" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -3255,7 +2059,7 @@
       <c r="CI27" s="3"/>
       <c r="CJ27" s="3"/>
     </row>
-    <row r="28" spans="2:88" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
@@ -3279,10 +2083,22 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="K28" s="8">
+        <f t="shared" si="15"/>
+        <v>-2.3769039712991935E-3</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="15"/>
+        <v>0.43320455395171886</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="N28" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -3358,7 +2174,7 @@
       <c r="CI28" s="3"/>
       <c r="CJ28" s="3"/>
     </row>
-    <row r="29" spans="2:88" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
@@ -3382,10 +2198,22 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="K29" s="8">
+        <f t="shared" si="15"/>
+        <v>0.18632855567805962</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="15"/>
+        <v>0.5780911062906724</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="N29" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -3461,7 +2289,7 @@
       <c r="CI29" s="3"/>
       <c r="CJ29" s="3"/>
     </row>
-    <row r="30" spans="2:88" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
@@ -3485,10 +2313,22 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="K30" s="8">
+        <f t="shared" si="15"/>
+        <v>1.4802921351986242E-3</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="15"/>
+        <v>6.5900722433387404E-2</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="N30" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -3564,7 +2404,7 @@
       <c r="CI30" s="3"/>
       <c r="CJ30" s="3"/>
     </row>
-    <row r="31" spans="2:88" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
@@ -3588,10 +2428,22 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="K31" s="8">
+        <f t="shared" si="15"/>
+        <v>0.18632855567805962</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="15"/>
+        <v>0.5780911062906724</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="N31" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -3667,34 +2519,46 @@
       <c r="CI31" s="3"/>
       <c r="CJ31" s="3"/>
     </row>
-    <row r="32" spans="2:88" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="8" t="e">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="10" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="8" t="e">
+      <c r="H32" s="10" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="10">
         <f t="shared" si="16"/>
         <v>0.13015891969345006</v>
       </c>
-      <c r="J32" s="8" t="e">
+      <c r="J32" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="K32" s="10">
+        <f t="shared" si="15"/>
+        <v>2.0873274062649383E-3</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="15"/>
+        <v>6.7704702293750696E-2</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="N32" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -3770,7 +2634,10 @@
       <c r="CI32" s="3"/>
       <c r="CJ32" s="3"/>
     </row>
-    <row r="33" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="C33" s="8" t="e">
         <f t="shared" ref="C33:H33" si="17">+C11/C9</f>
         <v>#DIV/0!</v>
@@ -3787,26 +2654,38 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="8" t="e">
+      <c r="G33" s="8">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.40699263732822094</v>
       </c>
-      <c r="H33" s="8" t="e">
+      <c r="H33" s="8">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.41472210072332699</v>
       </c>
       <c r="I33" s="8">
         <f>+I11/I9</f>
         <v>0.41548645295553688</v>
       </c>
       <c r="J33" s="8" t="e">
-        <f>+J11/J9</f>
+        <f t="shared" ref="J33:N33" si="18">+J11/J9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="K33" s="8">
+        <f t="shared" si="18"/>
+        <v>0.4087680250896964</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="18"/>
+        <v>0.40434168157423966</v>
+      </c>
+      <c r="M33" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -3882,43 +2761,58 @@
       <c r="CI33" s="3"/>
       <c r="CJ33" s="3"/>
     </row>
-    <row r="34" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="C34" s="8" t="e">
-        <f t="shared" ref="C34:H34" si="18">+C15/C9</f>
+        <f t="shared" ref="C34:H34" si="19">+C15/C9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D34" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.14968918028990533</v>
       </c>
       <c r="F34" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+      <c r="G34" s="8">
+        <f t="shared" si="19"/>
+        <v>0.10272981873018806</v>
       </c>
-      <c r="H34" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+      <c r="H34" s="8">
+        <f t="shared" si="19"/>
+        <v>8.9522932730783711E-2</v>
       </c>
       <c r="I34" s="8">
         <f>+I15/I9</f>
         <v>0.11938688117821268</v>
       </c>
       <c r="J34" s="8" t="e">
-        <f>+J15/J9</f>
+        <f t="shared" ref="J34:N34" si="20">+J15/J9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="K34" s="8">
+        <f t="shared" si="20"/>
+        <v>9.6649889618343227E-2</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="20"/>
+        <v>-7.2017889087656592E-2</v>
+      </c>
+      <c r="M34" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -3994,43 +2888,58 @@
       <c r="CI34" s="3"/>
       <c r="CJ34" s="3"/>
     </row>
-    <row r="35" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="C35" s="8" t="e">
-        <f t="shared" ref="C35:H35" si="19">+C18/C17</f>
+        <f t="shared" ref="C35:H35" si="21">+C18/C17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.23094731868651092</v>
       </c>
       <c r="F35" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+      <c r="G35" s="8">
+        <f t="shared" si="21"/>
+        <v>0.23565633522581086</v>
       </c>
-      <c r="H35" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+      <c r="H35" s="8">
+        <f t="shared" si="21"/>
+        <v>0.23383032992555416</v>
       </c>
       <c r="I35" s="8">
         <f>+I18/I17</f>
         <v>0.25520545421042934</v>
       </c>
       <c r="J35" s="8" t="e">
-        <f>+J18/J17</f>
+        <f t="shared" ref="J35:N35" si="22">+J18/J17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="K35" s="8">
+        <f t="shared" si="22"/>
+        <v>0.24053894860845237</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="22"/>
+        <v>-0.11238182810838757</v>
+      </c>
+      <c r="M35" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -4106,7 +3015,7 @@
       <c r="CI35" s="3"/>
       <c r="CJ35" s="3"/>
     </row>
-    <row r="36" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -4194,7 +3103,7 @@
       <c r="CI36" s="3"/>
       <c r="CJ36" s="3"/>
     </row>
-    <row r="37" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -4282,7 +3191,7 @@
       <c r="CI37" s="3"/>
       <c r="CJ37" s="3"/>
     </row>
-    <row r="38" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -4370,7 +3279,7 @@
       <c r="CI38" s="3"/>
       <c r="CJ38" s="3"/>
     </row>
-    <row r="39" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -4458,7 +3367,7 @@
       <c r="CI39" s="3"/>
       <c r="CJ39" s="3"/>
     </row>
-    <row r="40" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -4546,7 +3455,7 @@
       <c r="CI40" s="3"/>
       <c r="CJ40" s="3"/>
     </row>
-    <row r="41" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -4634,7 +3543,7 @@
       <c r="CI41" s="3"/>
       <c r="CJ41" s="3"/>
     </row>
-    <row r="42" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4722,7 +3631,7 @@
       <c r="CI42" s="3"/>
       <c r="CJ42" s="3"/>
     </row>
-    <row r="43" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4810,7 +3719,7 @@
       <c r="CI43" s="3"/>
       <c r="CJ43" s="3"/>
     </row>
-    <row r="44" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4898,7 +3807,7 @@
       <c r="CI44" s="3"/>
       <c r="CJ44" s="3"/>
     </row>
-    <row r="45" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4986,7 +3895,7 @@
       <c r="CI45" s="3"/>
       <c r="CJ45" s="3"/>
     </row>
-    <row r="46" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -5074,7 +3983,7 @@
       <c r="CI46" s="3"/>
       <c r="CJ46" s="3"/>
     </row>
-    <row r="47" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -5162,7 +4071,7 @@
       <c r="CI47" s="3"/>
       <c r="CJ47" s="3"/>
     </row>
-    <row r="48" spans="3:88" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:88" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
